--- a/ParserA/parser/Excel_files/Сопоставление1.xlsx
+++ b/ParserA/parser/Excel_files/Сопоставление1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\ParserAbsolut\ParserA\parser\Excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3347D929-B5DA-4411-B742-7F1808EAD4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B5524D-501F-4F25-A938-851C712C22F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="1348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2030" uniqueCount="1349">
   <si>
     <t>Наименование</t>
   </si>
@@ -4116,6 +4116,9 @@
   </si>
   <si>
     <t>Сслыки</t>
+  </si>
+  <si>
+    <t>00000008505</t>
   </si>
 </sst>
 </file>
@@ -4174,6 +4177,8 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <u/>
@@ -4286,9 +4291,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4312,6 +4314,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4702,8 +4707,8 @@
   </sheetPr>
   <dimension ref="A1:J335"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A310" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B320" sqref="B320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -4728,15 +4733,15 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>1347</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -4751,12 +4756,12 @@
       <c r="D2" s="3" t="s">
         <v>1014</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -4771,15 +4776,15 @@
       <c r="D3" s="3" t="s">
         <v>1015</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>947</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -4791,12 +4796,12 @@
       <c r="D4" s="3" t="s">
         <v>1016</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
@@ -4811,12 +4816,12 @@
       <c r="D5" s="3" t="s">
         <v>1017</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -4831,12 +4836,12 @@
       <c r="D6" s="3" t="s">
         <v>1018</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -4851,15 +4856,15 @@
       <c r="D7" s="3" t="s">
         <v>1019</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>877</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -4871,12 +4876,12 @@
       <c r="D8" s="3" t="s">
         <v>1020</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -4891,12 +4896,12 @@
       <c r="D9" s="3" t="s">
         <v>1021</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -4911,12 +4916,12 @@
       <c r="D10" s="3" t="s">
         <v>1022</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -4931,12 +4936,12 @@
       <c r="D11" s="3" t="s">
         <v>1023</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
@@ -4951,12 +4956,12 @@
       <c r="D12" s="3" t="s">
         <v>1024</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
@@ -4971,12 +4976,12 @@
       <c r="D13" s="3" t="s">
         <v>1025</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
@@ -4991,12 +4996,12 @@
       <c r="D14" s="3" t="s">
         <v>1029</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
@@ -5011,15 +5016,15 @@
       <c r="D15" s="3" t="s">
         <v>1026</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>948</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -5031,12 +5036,12 @@
       <c r="D16" s="3" t="s">
         <v>1027</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
@@ -5051,12 +5056,12 @@
       <c r="D17" s="3" t="s">
         <v>1028</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
@@ -5071,12 +5076,12 @@
       <c r="D18" s="3" t="s">
         <v>1030</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
@@ -5091,12 +5096,12 @@
       <c r="D19" s="3" t="s">
         <v>1031</v>
       </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
     </row>
     <row r="20" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
@@ -5111,12 +5116,12 @@
       <c r="D20" s="3" t="s">
         <v>1032</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
     </row>
     <row r="21" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
@@ -5131,12 +5136,12 @@
       <c r="D21" s="3" t="s">
         <v>1033</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
     </row>
     <row r="22" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
@@ -5151,15 +5156,15 @@
       <c r="D22" s="3" t="s">
         <v>1034</v>
       </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>928</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -5171,12 +5176,12 @@
       <c r="D23" s="3" t="s">
         <v>1035</v>
       </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
@@ -5191,12 +5196,12 @@
       <c r="D24" s="3" t="s">
         <v>1036</v>
       </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
@@ -5211,12 +5216,12 @@
       <c r="D25" s="3" t="s">
         <v>1037</v>
       </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
     </row>
     <row r="26" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
@@ -5231,12 +5236,12 @@
       <c r="D26" s="3" t="s">
         <v>1038</v>
       </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
     </row>
     <row r="27" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
@@ -5251,12 +5256,12 @@
       <c r="D27" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
     </row>
     <row r="28" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
@@ -5271,12 +5276,12 @@
       <c r="D28" s="3" t="s">
         <v>1040</v>
       </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
@@ -5291,12 +5296,12 @@
       <c r="D29" s="3" t="s">
         <v>1041</v>
       </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
     </row>
     <row r="30" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
@@ -5311,12 +5316,12 @@
       <c r="D30" s="3" t="s">
         <v>1042</v>
       </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
     </row>
     <row r="31" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
@@ -5331,15 +5336,15 @@
       <c r="D31" s="3" t="s">
         <v>1043</v>
       </c>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="9" t="s">
         <v>912</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -5351,12 +5356,12 @@
       <c r="D32" s="3" t="s">
         <v>1044</v>
       </c>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
     </row>
     <row r="33" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
@@ -5371,15 +5376,15 @@
       <c r="D33" s="3" t="s">
         <v>1045</v>
       </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
     </row>
     <row r="34" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="9" t="s">
         <v>925</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -5391,12 +5396,12 @@
       <c r="D34" s="3" t="s">
         <v>1046</v>
       </c>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
     </row>
     <row r="35" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
@@ -5411,12 +5416,12 @@
       <c r="D35" s="3" t="s">
         <v>1047</v>
       </c>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
     </row>
     <row r="36" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
@@ -5431,15 +5436,15 @@
       <c r="D36" s="3" t="s">
         <v>1048</v>
       </c>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
     </row>
     <row r="37" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="9" t="s">
         <v>919</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -5451,12 +5456,12 @@
       <c r="D37" s="3" t="s">
         <v>1049</v>
       </c>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
     </row>
     <row r="38" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
@@ -5471,12 +5476,12 @@
       <c r="D38" s="3" t="s">
         <v>1050</v>
       </c>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
     </row>
     <row r="39" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
@@ -5491,12 +5496,12 @@
       <c r="D39" s="3" t="s">
         <v>1051</v>
       </c>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
     </row>
     <row r="40" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
@@ -5511,12 +5516,12 @@
       <c r="D40" s="3" t="s">
         <v>1052</v>
       </c>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
     </row>
     <row r="41" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
@@ -5531,15 +5536,15 @@
       <c r="D41" s="3" t="s">
         <v>1053</v>
       </c>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
     </row>
     <row r="42" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="9" t="s">
         <v>867</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -5551,12 +5556,12 @@
       <c r="D42" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
     </row>
     <row r="43" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
@@ -5571,12 +5576,12 @@
       <c r="D43" s="3" t="s">
         <v>1055</v>
       </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
     </row>
     <row r="44" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
@@ -5591,12 +5596,12 @@
       <c r="D44" s="3" t="s">
         <v>1056</v>
       </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
     </row>
     <row r="45" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
@@ -5611,12 +5616,12 @@
       <c r="D45" s="3" t="s">
         <v>1057</v>
       </c>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
     </row>
     <row r="46" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
@@ -5631,12 +5636,12 @@
       <c r="D46" s="3" t="s">
         <v>1058</v>
       </c>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
     </row>
     <row r="47" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
@@ -5651,12 +5656,12 @@
       <c r="D47" s="3" t="s">
         <v>1059</v>
       </c>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
     </row>
     <row r="48" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
@@ -5671,12 +5676,12 @@
       <c r="D48" s="3" t="s">
         <v>1060</v>
       </c>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
     </row>
     <row r="49" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
@@ -5691,12 +5696,12 @@
       <c r="D49" s="3" t="s">
         <v>1061</v>
       </c>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
     </row>
     <row r="50" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
@@ -5711,12 +5716,12 @@
       <c r="D50" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
     </row>
     <row r="51" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
@@ -5731,15 +5736,15 @@
       <c r="D51" s="3" t="s">
         <v>1063</v>
       </c>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
     </row>
     <row r="52" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="9" t="s">
         <v>944</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -5751,15 +5756,15 @@
       <c r="D52" s="3" t="s">
         <v>1064</v>
       </c>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
     </row>
     <row r="53" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="9" t="s">
         <v>942</v>
       </c>
       <c r="B53" s="3" t="s">
@@ -5771,15 +5776,15 @@
       <c r="D53" s="3" t="s">
         <v>1065</v>
       </c>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
     </row>
     <row r="54" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="9" t="s">
         <v>943</v>
       </c>
       <c r="B54" s="3" t="s">
@@ -5791,15 +5796,15 @@
       <c r="D54" s="3" t="s">
         <v>1066</v>
       </c>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
     </row>
     <row r="55" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="9" t="s">
         <v>941</v>
       </c>
       <c r="B55" s="3" t="s">
@@ -5811,15 +5816,15 @@
       <c r="D55" s="3" t="s">
         <v>1067</v>
       </c>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
     </row>
     <row r="56" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="9" t="s">
         <v>939</v>
       </c>
       <c r="B56" s="3" t="s">
@@ -5831,15 +5836,15 @@
       <c r="D56" s="3" t="s">
         <v>1068</v>
       </c>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
     </row>
     <row r="57" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="9" t="s">
         <v>940</v>
       </c>
       <c r="B57" s="3" t="s">
@@ -5851,15 +5856,15 @@
       <c r="D57" s="3" t="s">
         <v>1069</v>
       </c>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
     </row>
     <row r="58" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="9" t="s">
         <v>916</v>
       </c>
       <c r="B58" s="3" t="s">
@@ -5871,15 +5876,15 @@
       <c r="D58" s="3" t="s">
         <v>1070</v>
       </c>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13"/>
     </row>
     <row r="59" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="9" t="s">
         <v>915</v>
       </c>
       <c r="B59" s="3" t="s">
@@ -5891,15 +5896,15 @@
       <c r="D59" s="3" t="s">
         <v>1071</v>
       </c>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
     </row>
     <row r="60" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="9" t="s">
         <v>913</v>
       </c>
       <c r="B60" s="3" t="s">
@@ -5911,12 +5916,12 @@
       <c r="D60" s="3" t="s">
         <v>1072</v>
       </c>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
     </row>
     <row r="61" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
@@ -5931,12 +5936,12 @@
       <c r="D61" s="3" t="s">
         <v>1073</v>
       </c>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
     </row>
     <row r="62" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
@@ -5951,12 +5956,12 @@
       <c r="D62" s="3" t="s">
         <v>1074</v>
       </c>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="13"/>
     </row>
     <row r="63" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
@@ -5971,12 +5976,12 @@
       <c r="D63" s="3" t="s">
         <v>1075</v>
       </c>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13"/>
     </row>
     <row r="64" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
@@ -5991,12 +5996,12 @@
       <c r="D64" s="3" t="s">
         <v>1076</v>
       </c>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13"/>
     </row>
     <row r="65" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
@@ -6011,12 +6016,12 @@
       <c r="D65" s="3" t="s">
         <v>1077</v>
       </c>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="13"/>
     </row>
     <row r="66" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
@@ -6031,12 +6036,12 @@
       <c r="D66" s="3" t="s">
         <v>1078</v>
       </c>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="13"/>
     </row>
     <row r="67" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
@@ -6051,12 +6056,12 @@
       <c r="D67" s="3" t="s">
         <v>1079</v>
       </c>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="13"/>
     </row>
     <row r="68" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
@@ -6071,12 +6076,12 @@
       <c r="D68" s="3" t="s">
         <v>1080</v>
       </c>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="13"/>
     </row>
     <row r="69" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
@@ -6091,12 +6096,12 @@
       <c r="D69" s="3" t="s">
         <v>1081</v>
       </c>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="13"/>
     </row>
     <row r="70" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
@@ -6111,12 +6116,12 @@
       <c r="D70" s="3" t="s">
         <v>1082</v>
       </c>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="13"/>
     </row>
     <row r="71" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
@@ -6131,12 +6136,12 @@
       <c r="D71" s="3" t="s">
         <v>1083</v>
       </c>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="14"/>
-      <c r="J71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="13"/>
     </row>
     <row r="72" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
@@ -6151,12 +6156,12 @@
       <c r="D72" s="3" t="s">
         <v>1084</v>
       </c>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="13"/>
     </row>
     <row r="73" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
@@ -6171,12 +6176,12 @@
       <c r="D73" s="3" t="s">
         <v>1085</v>
       </c>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="13"/>
     </row>
     <row r="74" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
@@ -6191,12 +6196,12 @@
       <c r="D74" s="3" t="s">
         <v>1086</v>
       </c>
-      <c r="E74" s="15"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="13"/>
     </row>
     <row r="75" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
@@ -6211,12 +6216,12 @@
       <c r="D75" s="3" t="s">
         <v>1087</v>
       </c>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-      <c r="I75" s="14"/>
-      <c r="J75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="13"/>
     </row>
     <row r="76" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
@@ -6231,12 +6236,12 @@
       <c r="D76" s="3" t="s">
         <v>1088</v>
       </c>
-      <c r="E76" s="15"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="15"/>
-      <c r="I76" s="14"/>
-      <c r="J76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="13"/>
     </row>
     <row r="77" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
@@ -6251,12 +6256,12 @@
       <c r="D77" s="3" t="s">
         <v>1089</v>
       </c>
-      <c r="E77" s="15"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="15"/>
-      <c r="I77" s="14"/>
-      <c r="J77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="13"/>
     </row>
     <row r="78" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
@@ -6271,12 +6276,12 @@
       <c r="D78" s="3" t="s">
         <v>1090</v>
       </c>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15"/>
-      <c r="I78" s="14"/>
-      <c r="J78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="13"/>
     </row>
     <row r="79" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
@@ -6291,12 +6296,12 @@
       <c r="D79" s="3" t="s">
         <v>1091</v>
       </c>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="15"/>
-      <c r="I79" s="14"/>
-      <c r="J79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="13"/>
+      <c r="J79" s="13"/>
     </row>
     <row r="80" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
@@ -6311,12 +6316,12 @@
       <c r="D80" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="15"/>
-      <c r="H80" s="15"/>
-      <c r="I80" s="14"/>
-      <c r="J80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="13"/>
+      <c r="J80" s="13"/>
     </row>
     <row r="81" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
@@ -6331,12 +6336,12 @@
       <c r="D81" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="15"/>
-      <c r="I81" s="14"/>
-      <c r="J81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="13"/>
+      <c r="J81" s="13"/>
     </row>
     <row r="82" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
@@ -6351,15 +6356,15 @@
       <c r="D82" s="3" t="s">
         <v>1094</v>
       </c>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="15"/>
-      <c r="H82" s="15"/>
-      <c r="I82" s="14"/>
-      <c r="J82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="13"/>
     </row>
     <row r="83" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="10" t="s">
+      <c r="A83" s="9" t="s">
         <v>924</v>
       </c>
       <c r="B83" s="3" t="s">
@@ -6371,15 +6376,15 @@
       <c r="D83" s="3" t="s">
         <v>1095</v>
       </c>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="15"/>
-      <c r="I83" s="14"/>
-      <c r="J83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="13"/>
+      <c r="J83" s="13"/>
     </row>
     <row r="84" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="10" t="s">
+      <c r="A84" s="9" t="s">
         <v>934</v>
       </c>
       <c r="B84" s="3" t="s">
@@ -6391,15 +6396,15 @@
       <c r="D84" s="3" t="s">
         <v>1096</v>
       </c>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="15"/>
-      <c r="I84" s="14"/>
-      <c r="J84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="13"/>
+      <c r="J84" s="13"/>
     </row>
     <row r="85" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="10" t="s">
+      <c r="A85" s="9" t="s">
         <v>933</v>
       </c>
       <c r="B85" s="3" t="s">
@@ -6411,15 +6416,15 @@
       <c r="D85" s="3" t="s">
         <v>1097</v>
       </c>
-      <c r="E85" s="15"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="15"/>
-      <c r="H85" s="15"/>
-      <c r="I85" s="14"/>
-      <c r="J85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="13"/>
+      <c r="J85" s="13"/>
     </row>
     <row r="86" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="10" t="s">
+      <c r="A86" s="9" t="s">
         <v>882</v>
       </c>
       <c r="B86" s="3" t="s">
@@ -6431,15 +6436,15 @@
       <c r="D86" s="3" t="s">
         <v>1098</v>
       </c>
-      <c r="E86" s="15"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="15"/>
-      <c r="H86" s="15"/>
-      <c r="I86" s="14"/>
-      <c r="J86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="13"/>
+      <c r="J86" s="13"/>
     </row>
     <row r="87" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="10" t="s">
+      <c r="A87" s="9" t="s">
         <v>920</v>
       </c>
       <c r="B87" s="3" t="s">
@@ -6451,12 +6456,12 @@
       <c r="D87" s="3" t="s">
         <v>1099</v>
       </c>
-      <c r="E87" s="15"/>
-      <c r="F87" s="15"/>
-      <c r="G87" s="15"/>
-      <c r="H87" s="15"/>
-      <c r="I87" s="14"/>
-      <c r="J87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="13"/>
+      <c r="J87" s="13"/>
     </row>
     <row r="88" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
@@ -6471,12 +6476,12 @@
       <c r="D88" s="3" t="s">
         <v>1100</v>
       </c>
-      <c r="E88" s="15"/>
-      <c r="F88" s="15"/>
-      <c r="G88" s="15"/>
-      <c r="H88" s="15"/>
-      <c r="I88" s="14"/>
-      <c r="J88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="13"/>
+      <c r="J88" s="13"/>
     </row>
     <row r="89" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
@@ -6491,15 +6496,15 @@
       <c r="D89" s="3" t="s">
         <v>1101</v>
       </c>
-      <c r="E89" s="15"/>
-      <c r="F89" s="15"/>
-      <c r="G89" s="15"/>
-      <c r="H89" s="15"/>
-      <c r="I89" s="14"/>
-      <c r="J89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="14"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="13"/>
+      <c r="J89" s="13"/>
     </row>
     <row r="90" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="10" t="s">
+      <c r="A90" s="9" t="s">
         <v>881</v>
       </c>
       <c r="B90" s="3" t="s">
@@ -6511,12 +6516,12 @@
       <c r="D90" s="3" t="s">
         <v>1102</v>
       </c>
-      <c r="E90" s="15"/>
-      <c r="F90" s="15"/>
-      <c r="G90" s="15"/>
-      <c r="H90" s="15"/>
-      <c r="I90" s="14"/>
-      <c r="J90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="14"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="13"/>
+      <c r="J90" s="13"/>
     </row>
     <row r="91" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
@@ -6531,15 +6536,15 @@
       <c r="D91" s="3" t="s">
         <v>1103</v>
       </c>
-      <c r="E91" s="15"/>
-      <c r="F91" s="15"/>
-      <c r="G91" s="15"/>
-      <c r="H91" s="15"/>
-      <c r="I91" s="14"/>
-      <c r="J91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="13"/>
+      <c r="J91" s="13"/>
     </row>
     <row r="92" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="10" t="s">
+      <c r="A92" s="9" t="s">
         <v>873</v>
       </c>
       <c r="B92" s="3" t="s">
@@ -6551,15 +6556,15 @@
       <c r="D92" s="3" t="s">
         <v>1104</v>
       </c>
-      <c r="E92" s="15"/>
-      <c r="F92" s="15"/>
-      <c r="G92" s="15"/>
-      <c r="H92" s="15"/>
-      <c r="I92" s="14"/>
-      <c r="J92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c r="G92" s="14"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="13"/>
+      <c r="J92" s="13"/>
     </row>
     <row r="93" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="10" t="s">
+      <c r="A93" s="9" t="s">
         <v>876</v>
       </c>
       <c r="B93" s="3" t="s">
@@ -6571,15 +6576,15 @@
       <c r="D93" s="3" t="s">
         <v>1105</v>
       </c>
-      <c r="E93" s="15"/>
-      <c r="F93" s="15"/>
-      <c r="G93" s="15"/>
-      <c r="H93" s="15"/>
-      <c r="I93" s="14"/>
-      <c r="J93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c r="G93" s="14"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="13"/>
+      <c r="J93" s="13"/>
     </row>
     <row r="94" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="10" t="s">
+      <c r="A94" s="9" t="s">
         <v>896</v>
       </c>
       <c r="B94" s="3" t="s">
@@ -6591,15 +6596,15 @@
       <c r="D94" s="3" t="s">
         <v>1106</v>
       </c>
-      <c r="E94" s="15"/>
-      <c r="F94" s="15"/>
-      <c r="G94" s="15"/>
-      <c r="H94" s="15"/>
-      <c r="I94" s="14"/>
-      <c r="J94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c r="G94" s="14"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="13"/>
+      <c r="J94" s="13"/>
     </row>
     <row r="95" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="10" t="s">
+      <c r="A95" s="9" t="s">
         <v>903</v>
       </c>
       <c r="B95" s="3" t="s">
@@ -6611,12 +6616,12 @@
       <c r="D95" s="3" t="s">
         <v>1107</v>
       </c>
-      <c r="E95" s="15"/>
-      <c r="F95" s="15"/>
-      <c r="G95" s="15"/>
-      <c r="H95" s="15"/>
-      <c r="I95" s="14"/>
-      <c r="J95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c r="G95" s="14"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="13"/>
+      <c r="J95" s="13"/>
     </row>
     <row r="96" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
@@ -6631,12 +6636,12 @@
       <c r="D96" s="3" t="s">
         <v>1108</v>
       </c>
-      <c r="E96" s="15"/>
-      <c r="F96" s="15"/>
-      <c r="G96" s="15"/>
-      <c r="H96" s="15"/>
-      <c r="I96" s="14"/>
-      <c r="J96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="14"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="13"/>
+      <c r="J96" s="13"/>
     </row>
     <row r="97" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
@@ -6651,15 +6656,15 @@
       <c r="D97" s="3" t="s">
         <v>1109</v>
       </c>
-      <c r="E97" s="15"/>
-      <c r="F97" s="15"/>
-      <c r="G97" s="15"/>
-      <c r="H97" s="15"/>
-      <c r="I97" s="14"/>
-      <c r="J97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c r="G97" s="14"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="13"/>
+      <c r="J97" s="13"/>
     </row>
     <row r="98" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="10" t="s">
+      <c r="A98" s="9" t="s">
         <v>870</v>
       </c>
       <c r="B98" s="3" t="s">
@@ -6671,12 +6676,12 @@
       <c r="D98" s="3" t="s">
         <v>1110</v>
       </c>
-      <c r="E98" s="15"/>
-      <c r="F98" s="15"/>
-      <c r="G98" s="15"/>
-      <c r="H98" s="15"/>
-      <c r="I98" s="14"/>
-      <c r="J98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="14"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="13"/>
+      <c r="J98" s="13"/>
     </row>
     <row r="99" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
@@ -6691,12 +6696,12 @@
       <c r="D99" s="3" t="s">
         <v>1111</v>
       </c>
-      <c r="E99" s="15"/>
-      <c r="F99" s="15"/>
-      <c r="G99" s="15"/>
-      <c r="H99" s="15"/>
-      <c r="I99" s="14"/>
-      <c r="J99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c r="G99" s="14"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="13"/>
+      <c r="J99" s="13"/>
     </row>
     <row r="100" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
@@ -6711,12 +6716,12 @@
       <c r="D100" s="3" t="s">
         <v>1112</v>
       </c>
-      <c r="E100" s="15"/>
-      <c r="F100" s="15"/>
-      <c r="G100" s="15"/>
-      <c r="H100" s="15"/>
-      <c r="I100" s="14"/>
-      <c r="J100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="13"/>
+      <c r="J100" s="13"/>
     </row>
     <row r="101" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
@@ -6731,12 +6736,12 @@
       <c r="D101" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="E101" s="15"/>
-      <c r="F101" s="15"/>
-      <c r="G101" s="15"/>
-      <c r="H101" s="15"/>
-      <c r="I101" s="14"/>
-      <c r="J101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c r="G101" s="14"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="13"/>
+      <c r="J101" s="13"/>
     </row>
     <row r="102" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
@@ -6751,12 +6756,12 @@
       <c r="D102" s="3" t="s">
         <v>1114</v>
       </c>
-      <c r="E102" s="15"/>
-      <c r="F102" s="15"/>
-      <c r="G102" s="15"/>
-      <c r="H102" s="15"/>
-      <c r="I102" s="14"/>
-      <c r="J102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c r="G102" s="14"/>
+      <c r="H102" s="14"/>
+      <c r="I102" s="13"/>
+      <c r="J102" s="13"/>
     </row>
     <row r="103" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
@@ -6771,12 +6776,12 @@
       <c r="D103" s="3" t="s">
         <v>1115</v>
       </c>
-      <c r="E103" s="15"/>
-      <c r="F103" s="15"/>
-      <c r="G103" s="15"/>
-      <c r="H103" s="15"/>
-      <c r="I103" s="14"/>
-      <c r="J103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c r="G103" s="14"/>
+      <c r="H103" s="14"/>
+      <c r="I103" s="13"/>
+      <c r="J103" s="13"/>
     </row>
     <row r="104" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
@@ -6791,15 +6796,15 @@
       <c r="D104" s="3" t="s">
         <v>1116</v>
       </c>
-      <c r="E104" s="15"/>
-      <c r="F104" s="15"/>
-      <c r="G104" s="15"/>
-      <c r="H104" s="15"/>
-      <c r="I104" s="14"/>
-      <c r="J104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c r="G104" s="14"/>
+      <c r="H104" s="14"/>
+      <c r="I104" s="13"/>
+      <c r="J104" s="13"/>
     </row>
     <row r="105" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="10" t="s">
+      <c r="A105" s="9" t="s">
         <v>895</v>
       </c>
       <c r="B105" s="3" t="s">
@@ -6811,12 +6816,12 @@
       <c r="D105" s="3" t="s">
         <v>1117</v>
       </c>
-      <c r="E105" s="15"/>
-      <c r="F105" s="15"/>
-      <c r="G105" s="15"/>
-      <c r="H105" s="15"/>
-      <c r="I105" s="14"/>
-      <c r="J105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c r="G105" s="14"/>
+      <c r="H105" s="14"/>
+      <c r="I105" s="13"/>
+      <c r="J105" s="13"/>
     </row>
     <row r="106" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
@@ -6831,15 +6836,15 @@
       <c r="D106" s="3" t="s">
         <v>1118</v>
       </c>
-      <c r="E106" s="15"/>
-      <c r="F106" s="15"/>
-      <c r="G106" s="15"/>
-      <c r="H106" s="15"/>
-      <c r="I106" s="14"/>
-      <c r="J106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c r="G106" s="14"/>
+      <c r="H106" s="14"/>
+      <c r="I106" s="13"/>
+      <c r="J106" s="13"/>
     </row>
     <row r="107" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="10" t="s">
+      <c r="A107" s="9" t="s">
         <v>898</v>
       </c>
       <c r="B107" s="3" t="s">
@@ -6851,12 +6856,12 @@
       <c r="D107" s="3" t="s">
         <v>1119</v>
       </c>
-      <c r="E107" s="15"/>
-      <c r="F107" s="15"/>
-      <c r="G107" s="15"/>
-      <c r="H107" s="15"/>
-      <c r="I107" s="14"/>
-      <c r="J107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c r="G107" s="14"/>
+      <c r="H107" s="14"/>
+      <c r="I107" s="13"/>
+      <c r="J107" s="13"/>
     </row>
     <row r="108" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
@@ -6871,15 +6876,15 @@
       <c r="D108" s="3" t="s">
         <v>1120</v>
       </c>
-      <c r="E108" s="15"/>
-      <c r="F108" s="15"/>
-      <c r="G108" s="15"/>
-      <c r="H108" s="15"/>
-      <c r="I108" s="14"/>
-      <c r="J108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c r="G108" s="14"/>
+      <c r="H108" s="14"/>
+      <c r="I108" s="13"/>
+      <c r="J108" s="13"/>
     </row>
     <row r="109" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="10" t="s">
+      <c r="A109" s="9" t="s">
         <v>868</v>
       </c>
       <c r="B109" s="3" t="s">
@@ -6891,15 +6896,15 @@
       <c r="D109" s="3" t="s">
         <v>1121</v>
       </c>
-      <c r="E109" s="15"/>
-      <c r="F109" s="15"/>
-      <c r="G109" s="15"/>
-      <c r="H109" s="15"/>
-      <c r="I109" s="14"/>
-      <c r="J109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c r="G109" s="14"/>
+      <c r="H109" s="14"/>
+      <c r="I109" s="13"/>
+      <c r="J109" s="13"/>
     </row>
     <row r="110" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="10" t="s">
+      <c r="A110" s="9" t="s">
         <v>875</v>
       </c>
       <c r="B110" s="3" t="s">
@@ -6911,15 +6916,15 @@
       <c r="D110" s="3" t="s">
         <v>1122</v>
       </c>
-      <c r="E110" s="15"/>
-      <c r="F110" s="15"/>
-      <c r="G110" s="15"/>
-      <c r="H110" s="15"/>
-      <c r="I110" s="14"/>
-      <c r="J110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c r="G110" s="14"/>
+      <c r="H110" s="14"/>
+      <c r="I110" s="13"/>
+      <c r="J110" s="13"/>
     </row>
     <row r="111" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="10" t="s">
+      <c r="A111" s="9" t="s">
         <v>869</v>
       </c>
       <c r="B111" s="3" t="s">
@@ -6931,15 +6936,15 @@
       <c r="D111" s="3" t="s">
         <v>1123</v>
       </c>
-      <c r="E111" s="15"/>
-      <c r="F111" s="15"/>
-      <c r="G111" s="15"/>
-      <c r="H111" s="15"/>
-      <c r="I111" s="14"/>
-      <c r="J111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c r="G111" s="14"/>
+      <c r="H111" s="14"/>
+      <c r="I111" s="13"/>
+      <c r="J111" s="13"/>
     </row>
     <row r="112" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="10" t="s">
+      <c r="A112" s="9" t="s">
         <v>889</v>
       </c>
       <c r="B112" s="3" t="s">
@@ -6951,12 +6956,12 @@
       <c r="D112" s="3" t="s">
         <v>1124</v>
       </c>
-      <c r="E112" s="15"/>
-      <c r="F112" s="15"/>
-      <c r="G112" s="15"/>
-      <c r="H112" s="15"/>
-      <c r="I112" s="14"/>
-      <c r="J112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c r="G112" s="14"/>
+      <c r="H112" s="14"/>
+      <c r="I112" s="13"/>
+      <c r="J112" s="13"/>
     </row>
     <row r="113" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
@@ -6971,12 +6976,12 @@
       <c r="D113" s="3" t="s">
         <v>1125</v>
       </c>
-      <c r="E113" s="15"/>
-      <c r="F113" s="15"/>
-      <c r="G113" s="15"/>
-      <c r="H113" s="15"/>
-      <c r="I113" s="14"/>
-      <c r="J113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c r="G113" s="14"/>
+      <c r="H113" s="14"/>
+      <c r="I113" s="13"/>
+      <c r="J113" s="13"/>
     </row>
     <row r="114" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
@@ -6991,32 +6996,32 @@
       <c r="D114" s="3" t="s">
         <v>1126</v>
       </c>
-      <c r="E114" s="15"/>
-      <c r="F114" s="15"/>
-      <c r="G114" s="15"/>
-      <c r="H114" s="15"/>
-      <c r="I114" s="14"/>
-      <c r="J114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c r="G114" s="14"/>
+      <c r="H114" s="14"/>
+      <c r="I114" s="13"/>
+      <c r="J114" s="13"/>
     </row>
     <row r="115" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="16" t="s">
+      <c r="A115" s="15" t="s">
         <v>993</v>
       </c>
-      <c r="B115" s="17" t="s">
+      <c r="B115" s="16" t="s">
         <v>963</v>
       </c>
-      <c r="C115" s="16" t="s">
+      <c r="C115" s="15" t="s">
         <v>962</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>1127</v>
       </c>
-      <c r="E115" s="15"/>
-      <c r="F115" s="15"/>
-      <c r="G115" s="15"/>
-      <c r="H115" s="15"/>
-      <c r="I115" s="14"/>
-      <c r="J115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c r="G115" s="14"/>
+      <c r="H115" s="14"/>
+      <c r="I115" s="13"/>
+      <c r="J115" s="13"/>
     </row>
     <row r="116" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
@@ -7031,12 +7036,12 @@
       <c r="D116" s="3" t="s">
         <v>1128</v>
       </c>
-      <c r="E116" s="15"/>
-      <c r="F116" s="15"/>
-      <c r="G116" s="15"/>
-      <c r="H116" s="15"/>
-      <c r="I116" s="14"/>
-      <c r="J116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c r="G116" s="14"/>
+      <c r="H116" s="14"/>
+      <c r="I116" s="13"/>
+      <c r="J116" s="13"/>
     </row>
     <row r="117" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
@@ -7051,12 +7056,12 @@
       <c r="D117" s="3" t="s">
         <v>1129</v>
       </c>
-      <c r="E117" s="15"/>
-      <c r="F117" s="15"/>
-      <c r="G117" s="15"/>
-      <c r="H117" s="15"/>
-      <c r="I117" s="14"/>
-      <c r="J117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c r="G117" s="14"/>
+      <c r="H117" s="14"/>
+      <c r="I117" s="13"/>
+      <c r="J117" s="13"/>
     </row>
     <row r="118" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
@@ -7071,12 +7076,12 @@
       <c r="D118" s="3" t="s">
         <v>1130</v>
       </c>
-      <c r="E118" s="15"/>
-      <c r="F118" s="15"/>
-      <c r="G118" s="15"/>
-      <c r="H118" s="15"/>
-      <c r="I118" s="14"/>
-      <c r="J118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c r="G118" s="14"/>
+      <c r="H118" s="14"/>
+      <c r="I118" s="13"/>
+      <c r="J118" s="13"/>
     </row>
     <row r="119" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
@@ -7091,12 +7096,12 @@
       <c r="D119" s="3" t="s">
         <v>1131</v>
       </c>
-      <c r="E119" s="15"/>
-      <c r="F119" s="15"/>
-      <c r="G119" s="15"/>
-      <c r="H119" s="15"/>
-      <c r="I119" s="14"/>
-      <c r="J119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c r="G119" s="14"/>
+      <c r="H119" s="14"/>
+      <c r="I119" s="13"/>
+      <c r="J119" s="13"/>
     </row>
     <row r="120" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
@@ -7111,12 +7116,12 @@
       <c r="D120" s="3" t="s">
         <v>1132</v>
       </c>
-      <c r="E120" s="15"/>
-      <c r="F120" s="15"/>
-      <c r="G120" s="15"/>
-      <c r="H120" s="15"/>
-      <c r="I120" s="14"/>
-      <c r="J120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c r="G120" s="14"/>
+      <c r="H120" s="14"/>
+      <c r="I120" s="13"/>
+      <c r="J120" s="13"/>
     </row>
     <row r="121" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
@@ -7131,12 +7136,12 @@
       <c r="D121" s="3" t="s">
         <v>1133</v>
       </c>
-      <c r="E121" s="15"/>
-      <c r="F121" s="15"/>
-      <c r="G121" s="15"/>
-      <c r="H121" s="15"/>
-      <c r="I121" s="14"/>
-      <c r="J121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c r="G121" s="14"/>
+      <c r="H121" s="14"/>
+      <c r="I121" s="13"/>
+      <c r="J121" s="13"/>
     </row>
     <row r="122" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
@@ -7151,12 +7156,12 @@
       <c r="D122" s="3" t="s">
         <v>1134</v>
       </c>
-      <c r="E122" s="15"/>
-      <c r="F122" s="15"/>
-      <c r="G122" s="15"/>
-      <c r="H122" s="15"/>
-      <c r="I122" s="14"/>
-      <c r="J122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c r="G122" s="14"/>
+      <c r="H122" s="14"/>
+      <c r="I122" s="13"/>
+      <c r="J122" s="13"/>
     </row>
     <row r="123" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
@@ -7171,15 +7176,15 @@
       <c r="D123" s="3" t="s">
         <v>1135</v>
       </c>
-      <c r="E123" s="15"/>
-      <c r="F123" s="15"/>
-      <c r="G123" s="15"/>
-      <c r="H123" s="15"/>
-      <c r="I123" s="14"/>
-      <c r="J123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c r="G123" s="14"/>
+      <c r="H123" s="14"/>
+      <c r="I123" s="13"/>
+      <c r="J123" s="13"/>
     </row>
     <row r="124" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="10" t="s">
+      <c r="A124" s="9" t="s">
         <v>880</v>
       </c>
       <c r="B124" s="3" t="s">
@@ -7191,35 +7196,35 @@
       <c r="D124" s="3" t="s">
         <v>1136</v>
       </c>
-      <c r="E124" s="15"/>
-      <c r="F124" s="15"/>
-      <c r="G124" s="15"/>
-      <c r="H124" s="15"/>
-      <c r="I124" s="14"/>
-      <c r="J124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c r="G124" s="14"/>
+      <c r="H124" s="14"/>
+      <c r="I124" s="13"/>
+      <c r="J124" s="13"/>
     </row>
     <row r="125" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="16" t="s">
+      <c r="A125" s="15" t="s">
         <v>994</v>
       </c>
-      <c r="B125" s="17" t="s">
+      <c r="B125" s="16" t="s">
         <v>965</v>
       </c>
-      <c r="C125" s="17" t="s">
+      <c r="C125" s="16" t="s">
         <v>964</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>1137</v>
       </c>
-      <c r="E125" s="15"/>
-      <c r="F125" s="15"/>
-      <c r="G125" s="15"/>
-      <c r="H125" s="15"/>
-      <c r="I125" s="14"/>
-      <c r="J125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c r="G125" s="14"/>
+      <c r="H125" s="14"/>
+      <c r="I125" s="13"/>
+      <c r="J125" s="13"/>
     </row>
     <row r="126" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="10" t="s">
+      <c r="A126" s="9" t="s">
         <v>995</v>
       </c>
       <c r="B126" s="3" t="s">
@@ -7231,12 +7236,12 @@
       <c r="D126" s="3" t="s">
         <v>1138</v>
       </c>
-      <c r="E126" s="15"/>
-      <c r="F126" s="15"/>
-      <c r="G126" s="15"/>
-      <c r="H126" s="15"/>
-      <c r="I126" s="14"/>
-      <c r="J126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c r="G126" s="14"/>
+      <c r="H126" s="14"/>
+      <c r="I126" s="13"/>
+      <c r="J126" s="13"/>
     </row>
     <row r="127" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
@@ -7251,12 +7256,12 @@
       <c r="D127" s="3" t="s">
         <v>1139</v>
       </c>
-      <c r="E127" s="15"/>
-      <c r="F127" s="15"/>
-      <c r="G127" s="15"/>
-      <c r="H127" s="15"/>
-      <c r="I127" s="14"/>
-      <c r="J127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
+      <c r="G127" s="14"/>
+      <c r="H127" s="14"/>
+      <c r="I127" s="13"/>
+      <c r="J127" s="13"/>
     </row>
     <row r="128" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
@@ -7271,12 +7276,12 @@
       <c r="D128" s="3" t="s">
         <v>1140</v>
       </c>
-      <c r="E128" s="15"/>
-      <c r="F128" s="15"/>
-      <c r="G128" s="15"/>
-      <c r="H128" s="15"/>
-      <c r="I128" s="14"/>
-      <c r="J128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c r="G128" s="14"/>
+      <c r="H128" s="14"/>
+      <c r="I128" s="13"/>
+      <c r="J128" s="13"/>
     </row>
     <row r="129" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
@@ -7291,12 +7296,12 @@
       <c r="D129" s="3" t="s">
         <v>1141</v>
       </c>
-      <c r="E129" s="15"/>
-      <c r="F129" s="15"/>
-      <c r="G129" s="15"/>
-      <c r="H129" s="15"/>
-      <c r="I129" s="14"/>
-      <c r="J129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c r="G129" s="14"/>
+      <c r="H129" s="14"/>
+      <c r="I129" s="13"/>
+      <c r="J129" s="13"/>
     </row>
     <row r="130" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
@@ -7311,15 +7316,15 @@
       <c r="D130" s="3" t="s">
         <v>1142</v>
       </c>
-      <c r="E130" s="15"/>
-      <c r="F130" s="15"/>
-      <c r="G130" s="15"/>
-      <c r="H130" s="15"/>
-      <c r="I130" s="14"/>
-      <c r="J130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c r="G130" s="14"/>
+      <c r="H130" s="14"/>
+      <c r="I130" s="13"/>
+      <c r="J130" s="13"/>
     </row>
     <row r="131" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="10" t="s">
+      <c r="A131" s="9" t="s">
         <v>883</v>
       </c>
       <c r="B131" s="3" t="s">
@@ -7331,15 +7336,15 @@
       <c r="D131" s="3" t="s">
         <v>1143</v>
       </c>
-      <c r="E131" s="15"/>
-      <c r="F131" s="15"/>
-      <c r="G131" s="15"/>
-      <c r="H131" s="15"/>
-      <c r="I131" s="14"/>
-      <c r="J131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c r="G131" s="14"/>
+      <c r="H131" s="14"/>
+      <c r="I131" s="13"/>
+      <c r="J131" s="13"/>
     </row>
     <row r="132" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="10" t="s">
+      <c r="A132" s="9" t="s">
         <v>906</v>
       </c>
       <c r="B132" s="3" t="s">
@@ -7351,15 +7356,15 @@
       <c r="D132" s="3" t="s">
         <v>1144</v>
       </c>
-      <c r="E132" s="15"/>
-      <c r="F132" s="15"/>
-      <c r="G132" s="15"/>
-      <c r="H132" s="15"/>
-      <c r="I132" s="14"/>
-      <c r="J132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c r="G132" s="14"/>
+      <c r="H132" s="14"/>
+      <c r="I132" s="13"/>
+      <c r="J132" s="13"/>
     </row>
     <row r="133" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="10" t="s">
+      <c r="A133" s="9" t="s">
         <v>891</v>
       </c>
       <c r="B133" s="3" t="s">
@@ -7371,15 +7376,15 @@
       <c r="D133" s="3" t="s">
         <v>1145</v>
       </c>
-      <c r="E133" s="15"/>
-      <c r="F133" s="15"/>
-      <c r="G133" s="15"/>
-      <c r="H133" s="15"/>
-      <c r="I133" s="14"/>
-      <c r="J133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
+      <c r="G133" s="14"/>
+      <c r="H133" s="14"/>
+      <c r="I133" s="13"/>
+      <c r="J133" s="13"/>
     </row>
     <row r="134" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="10" t="s">
+      <c r="A134" s="9" t="s">
         <v>932</v>
       </c>
       <c r="B134" s="3" t="s">
@@ -7391,15 +7396,15 @@
       <c r="D134" s="3" t="s">
         <v>1146</v>
       </c>
-      <c r="E134" s="15"/>
-      <c r="F134" s="15"/>
-      <c r="G134" s="15"/>
-      <c r="H134" s="15"/>
-      <c r="I134" s="14"/>
-      <c r="J134" s="14"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
+      <c r="G134" s="14"/>
+      <c r="H134" s="14"/>
+      <c r="I134" s="13"/>
+      <c r="J134" s="13"/>
     </row>
     <row r="135" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="10" t="s">
+      <c r="A135" s="9" t="s">
         <v>935</v>
       </c>
       <c r="B135" s="3" t="s">
@@ -7411,15 +7416,15 @@
       <c r="D135" s="3" t="s">
         <v>1147</v>
       </c>
-      <c r="E135" s="15"/>
-      <c r="F135" s="15"/>
-      <c r="G135" s="15"/>
-      <c r="H135" s="15"/>
-      <c r="I135" s="14"/>
-      <c r="J135" s="14"/>
+      <c r="E135" s="14"/>
+      <c r="F135" s="14"/>
+      <c r="G135" s="14"/>
+      <c r="H135" s="14"/>
+      <c r="I135" s="13"/>
+      <c r="J135" s="13"/>
     </row>
     <row r="136" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="10" t="s">
+      <c r="A136" s="9" t="s">
         <v>917</v>
       </c>
       <c r="B136" s="3" t="s">
@@ -7431,15 +7436,15 @@
       <c r="D136" s="3" t="s">
         <v>1148</v>
       </c>
-      <c r="E136" s="15"/>
-      <c r="F136" s="15"/>
-      <c r="G136" s="15"/>
-      <c r="H136" s="15"/>
-      <c r="I136" s="14"/>
-      <c r="J136" s="14"/>
+      <c r="E136" s="14"/>
+      <c r="F136" s="14"/>
+      <c r="G136" s="14"/>
+      <c r="H136" s="14"/>
+      <c r="I136" s="13"/>
+      <c r="J136" s="13"/>
     </row>
     <row r="137" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="10" t="s">
+      <c r="A137" s="9" t="s">
         <v>918</v>
       </c>
       <c r="B137" s="3" t="s">
@@ -7451,12 +7456,12 @@
       <c r="D137" s="3" t="s">
         <v>1149</v>
       </c>
-      <c r="E137" s="15"/>
-      <c r="F137" s="15"/>
-      <c r="G137" s="15"/>
-      <c r="H137" s="15"/>
-      <c r="I137" s="14"/>
-      <c r="J137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+      <c r="G137" s="14"/>
+      <c r="H137" s="14"/>
+      <c r="I137" s="13"/>
+      <c r="J137" s="13"/>
     </row>
     <row r="138" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
@@ -7471,12 +7476,12 @@
       <c r="D138" s="3" t="s">
         <v>1150</v>
       </c>
-      <c r="E138" s="15"/>
-      <c r="F138" s="15"/>
-      <c r="G138" s="15"/>
-      <c r="H138" s="15"/>
-      <c r="I138" s="14"/>
-      <c r="J138" s="14"/>
+      <c r="E138" s="14"/>
+      <c r="F138" s="14"/>
+      <c r="G138" s="14"/>
+      <c r="H138" s="14"/>
+      <c r="I138" s="13"/>
+      <c r="J138" s="13"/>
     </row>
     <row r="139" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
@@ -7491,12 +7496,12 @@
       <c r="D139" s="3" t="s">
         <v>1151</v>
       </c>
-      <c r="E139" s="15"/>
-      <c r="F139" s="15"/>
-      <c r="G139" s="15"/>
-      <c r="H139" s="15"/>
-      <c r="I139" s="14"/>
-      <c r="J139" s="14"/>
+      <c r="E139" s="14"/>
+      <c r="F139" s="14"/>
+      <c r="G139" s="14"/>
+      <c r="H139" s="14"/>
+      <c r="I139" s="13"/>
+      <c r="J139" s="13"/>
     </row>
     <row r="140" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
@@ -7511,15 +7516,15 @@
       <c r="D140" s="3" t="s">
         <v>1152</v>
       </c>
-      <c r="E140" s="15"/>
-      <c r="F140" s="15"/>
-      <c r="G140" s="15"/>
-      <c r="H140" s="15"/>
-      <c r="I140" s="14"/>
-      <c r="J140" s="14"/>
+      <c r="E140" s="14"/>
+      <c r="F140" s="14"/>
+      <c r="G140" s="14"/>
+      <c r="H140" s="14"/>
+      <c r="I140" s="13"/>
+      <c r="J140" s="13"/>
     </row>
     <row r="141" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="10" t="s">
+      <c r="A141" s="9" t="s">
         <v>911</v>
       </c>
       <c r="B141" s="3" t="s">
@@ -7531,12 +7536,12 @@
       <c r="D141" s="3" t="s">
         <v>1153</v>
       </c>
-      <c r="E141" s="15"/>
-      <c r="F141" s="15"/>
-      <c r="G141" s="15"/>
-      <c r="H141" s="15"/>
-      <c r="I141" s="14"/>
-      <c r="J141" s="14"/>
+      <c r="E141" s="14"/>
+      <c r="F141" s="14"/>
+      <c r="G141" s="14"/>
+      <c r="H141" s="14"/>
+      <c r="I141" s="13"/>
+      <c r="J141" s="13"/>
     </row>
     <row r="142" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
@@ -7551,15 +7556,15 @@
       <c r="D142" s="3" t="s">
         <v>1154</v>
       </c>
-      <c r="E142" s="15"/>
-      <c r="F142" s="15"/>
-      <c r="G142" s="15"/>
-      <c r="H142" s="15"/>
-      <c r="I142" s="14"/>
-      <c r="J142" s="14"/>
+      <c r="E142" s="14"/>
+      <c r="F142" s="14"/>
+      <c r="G142" s="14"/>
+      <c r="H142" s="14"/>
+      <c r="I142" s="13"/>
+      <c r="J142" s="13"/>
     </row>
     <row r="143" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="10" t="s">
+      <c r="A143" s="9" t="s">
         <v>923</v>
       </c>
       <c r="B143" s="3" t="s">
@@ -7571,15 +7576,15 @@
       <c r="D143" s="3" t="s">
         <v>1155</v>
       </c>
-      <c r="E143" s="15"/>
-      <c r="F143" s="15"/>
-      <c r="G143" s="15"/>
-      <c r="H143" s="15"/>
-      <c r="I143" s="14"/>
-      <c r="J143" s="14"/>
+      <c r="E143" s="14"/>
+      <c r="F143" s="14"/>
+      <c r="G143" s="14"/>
+      <c r="H143" s="14"/>
+      <c r="I143" s="13"/>
+      <c r="J143" s="13"/>
     </row>
     <row r="144" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="10" t="s">
+      <c r="A144" s="9" t="s">
         <v>921</v>
       </c>
       <c r="B144" s="3" t="s">
@@ -7591,12 +7596,12 @@
       <c r="D144" s="3" t="s">
         <v>1156</v>
       </c>
-      <c r="E144" s="15"/>
-      <c r="F144" s="15"/>
-      <c r="G144" s="15"/>
-      <c r="H144" s="15"/>
-      <c r="I144" s="14"/>
-      <c r="J144" s="14"/>
+      <c r="E144" s="14"/>
+      <c r="F144" s="14"/>
+      <c r="G144" s="14"/>
+      <c r="H144" s="14"/>
+      <c r="I144" s="13"/>
+      <c r="J144" s="13"/>
     </row>
     <row r="145" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
@@ -7611,12 +7616,12 @@
       <c r="D145" s="3" t="s">
         <v>1157</v>
       </c>
-      <c r="E145" s="15"/>
-      <c r="F145" s="15"/>
-      <c r="G145" s="15"/>
-      <c r="H145" s="15"/>
-      <c r="I145" s="14"/>
-      <c r="J145" s="14"/>
+      <c r="E145" s="14"/>
+      <c r="F145" s="14"/>
+      <c r="G145" s="14"/>
+      <c r="H145" s="14"/>
+      <c r="I145" s="13"/>
+      <c r="J145" s="13"/>
     </row>
     <row r="146" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
@@ -7631,12 +7636,12 @@
       <c r="D146" s="3" t="s">
         <v>1158</v>
       </c>
-      <c r="E146" s="15"/>
-      <c r="F146" s="15"/>
-      <c r="G146" s="15"/>
-      <c r="H146" s="15"/>
-      <c r="I146" s="14"/>
-      <c r="J146" s="14"/>
+      <c r="E146" s="14"/>
+      <c r="F146" s="14"/>
+      <c r="G146" s="14"/>
+      <c r="H146" s="14"/>
+      <c r="I146" s="13"/>
+      <c r="J146" s="13"/>
     </row>
     <row r="147" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
@@ -7651,12 +7656,12 @@
       <c r="D147" s="3" t="s">
         <v>1159</v>
       </c>
-      <c r="E147" s="15"/>
-      <c r="F147" s="15"/>
-      <c r="G147" s="15"/>
-      <c r="H147" s="15"/>
-      <c r="I147" s="14"/>
-      <c r="J147" s="14"/>
+      <c r="E147" s="14"/>
+      <c r="F147" s="14"/>
+      <c r="G147" s="14"/>
+      <c r="H147" s="14"/>
+      <c r="I147" s="13"/>
+      <c r="J147" s="13"/>
     </row>
     <row r="148" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
@@ -7671,15 +7676,15 @@
       <c r="D148" s="3" t="s">
         <v>1160</v>
       </c>
-      <c r="E148" s="15"/>
-      <c r="F148" s="15"/>
-      <c r="G148" s="15"/>
-      <c r="H148" s="15"/>
-      <c r="I148" s="14"/>
-      <c r="J148" s="14"/>
+      <c r="E148" s="14"/>
+      <c r="F148" s="14"/>
+      <c r="G148" s="14"/>
+      <c r="H148" s="14"/>
+      <c r="I148" s="13"/>
+      <c r="J148" s="13"/>
     </row>
     <row r="149" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="10" t="s">
+      <c r="A149" s="9" t="s">
         <v>936</v>
       </c>
       <c r="B149" s="3" t="s">
@@ -7691,15 +7696,15 @@
       <c r="D149" s="3" t="s">
         <v>1161</v>
       </c>
-      <c r="E149" s="15"/>
-      <c r="F149" s="15"/>
-      <c r="G149" s="15"/>
-      <c r="H149" s="15"/>
-      <c r="I149" s="14"/>
-      <c r="J149" s="14"/>
+      <c r="E149" s="14"/>
+      <c r="F149" s="14"/>
+      <c r="G149" s="14"/>
+      <c r="H149" s="14"/>
+      <c r="I149" s="13"/>
+      <c r="J149" s="13"/>
     </row>
     <row r="150" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="10" t="s">
+      <c r="A150" s="9" t="s">
         <v>888</v>
       </c>
       <c r="B150" s="3" t="s">
@@ -7711,15 +7716,15 @@
       <c r="D150" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="E150" s="15"/>
-      <c r="F150" s="15"/>
-      <c r="G150" s="15"/>
-      <c r="H150" s="15"/>
-      <c r="I150" s="14"/>
-      <c r="J150" s="14"/>
+      <c r="E150" s="14"/>
+      <c r="F150" s="14"/>
+      <c r="G150" s="14"/>
+      <c r="H150" s="14"/>
+      <c r="I150" s="13"/>
+      <c r="J150" s="13"/>
     </row>
     <row r="151" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="10" t="s">
+      <c r="A151" s="9" t="s">
         <v>901</v>
       </c>
       <c r="B151" s="3" t="s">
@@ -7731,12 +7736,12 @@
       <c r="D151" s="3" t="s">
         <v>1163</v>
       </c>
-      <c r="E151" s="15"/>
-      <c r="F151" s="15"/>
-      <c r="G151" s="15"/>
-      <c r="H151" s="15"/>
-      <c r="I151" s="14"/>
-      <c r="J151" s="14"/>
+      <c r="E151" s="14"/>
+      <c r="F151" s="14"/>
+      <c r="G151" s="14"/>
+      <c r="H151" s="14"/>
+      <c r="I151" s="13"/>
+      <c r="J151" s="13"/>
     </row>
     <row r="152" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
@@ -7751,15 +7756,15 @@
       <c r="D152" s="3" t="s">
         <v>1164</v>
       </c>
-      <c r="E152" s="15"/>
-      <c r="F152" s="15"/>
-      <c r="G152" s="15"/>
-      <c r="H152" s="15"/>
-      <c r="I152" s="14"/>
-      <c r="J152" s="14"/>
+      <c r="E152" s="14"/>
+      <c r="F152" s="14"/>
+      <c r="G152" s="14"/>
+      <c r="H152" s="14"/>
+      <c r="I152" s="13"/>
+      <c r="J152" s="13"/>
     </row>
     <row r="153" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="10" t="s">
+      <c r="A153" s="9" t="s">
         <v>902</v>
       </c>
       <c r="B153" s="3" t="s">
@@ -7771,15 +7776,15 @@
       <c r="D153" s="3" t="s">
         <v>1165</v>
       </c>
-      <c r="E153" s="15"/>
-      <c r="F153" s="15"/>
-      <c r="G153" s="15"/>
-      <c r="H153" s="15"/>
-      <c r="I153" s="14"/>
-      <c r="J153" s="14"/>
+      <c r="E153" s="14"/>
+      <c r="F153" s="14"/>
+      <c r="G153" s="14"/>
+      <c r="H153" s="14"/>
+      <c r="I153" s="13"/>
+      <c r="J153" s="13"/>
     </row>
     <row r="154" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="10" t="s">
+      <c r="A154" s="9" t="s">
         <v>937</v>
       </c>
       <c r="B154" s="3" t="s">
@@ -7791,12 +7796,12 @@
       <c r="D154" s="3" t="s">
         <v>1166</v>
       </c>
-      <c r="E154" s="15"/>
-      <c r="F154" s="15"/>
-      <c r="G154" s="15"/>
-      <c r="H154" s="15"/>
-      <c r="I154" s="14"/>
-      <c r="J154" s="14"/>
+      <c r="E154" s="14"/>
+      <c r="F154" s="14"/>
+      <c r="G154" s="14"/>
+      <c r="H154" s="14"/>
+      <c r="I154" s="13"/>
+      <c r="J154" s="13"/>
     </row>
     <row r="155" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
@@ -7811,12 +7816,12 @@
       <c r="D155" s="3" t="s">
         <v>1167</v>
       </c>
-      <c r="E155" s="15"/>
-      <c r="F155" s="15"/>
-      <c r="G155" s="15"/>
-      <c r="H155" s="15"/>
-      <c r="I155" s="14"/>
-      <c r="J155" s="14"/>
+      <c r="E155" s="14"/>
+      <c r="F155" s="14"/>
+      <c r="G155" s="14"/>
+      <c r="H155" s="14"/>
+      <c r="I155" s="13"/>
+      <c r="J155" s="13"/>
     </row>
     <row r="156" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
@@ -7831,15 +7836,15 @@
       <c r="D156" s="3" t="s">
         <v>1168</v>
       </c>
-      <c r="E156" s="15"/>
-      <c r="F156" s="15"/>
-      <c r="G156" s="15"/>
-      <c r="H156" s="15"/>
-      <c r="I156" s="14"/>
-      <c r="J156" s="14"/>
+      <c r="E156" s="14"/>
+      <c r="F156" s="14"/>
+      <c r="G156" s="14"/>
+      <c r="H156" s="14"/>
+      <c r="I156" s="13"/>
+      <c r="J156" s="13"/>
     </row>
     <row r="157" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="10" t="s">
+      <c r="A157" s="9" t="s">
         <v>890</v>
       </c>
       <c r="B157" s="3" t="s">
@@ -7851,15 +7856,15 @@
       <c r="D157" s="3" t="s">
         <v>1169</v>
       </c>
-      <c r="E157" s="15"/>
-      <c r="F157" s="15"/>
-      <c r="G157" s="15"/>
-      <c r="H157" s="15"/>
-      <c r="I157" s="14"/>
-      <c r="J157" s="14"/>
+      <c r="E157" s="14"/>
+      <c r="F157" s="14"/>
+      <c r="G157" s="14"/>
+      <c r="H157" s="14"/>
+      <c r="I157" s="13"/>
+      <c r="J157" s="13"/>
     </row>
     <row r="158" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="10" t="s">
+      <c r="A158" s="9" t="s">
         <v>874</v>
       </c>
       <c r="B158" s="3" t="s">
@@ -7871,15 +7876,15 @@
       <c r="D158" s="3" t="s">
         <v>1170</v>
       </c>
-      <c r="E158" s="15"/>
-      <c r="F158" s="15"/>
-      <c r="G158" s="15"/>
-      <c r="H158" s="15"/>
-      <c r="I158" s="14"/>
-      <c r="J158" s="14"/>
+      <c r="E158" s="14"/>
+      <c r="F158" s="14"/>
+      <c r="G158" s="14"/>
+      <c r="H158" s="14"/>
+      <c r="I158" s="13"/>
+      <c r="J158" s="13"/>
     </row>
     <row r="159" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="10" t="s">
+      <c r="A159" s="9" t="s">
         <v>892</v>
       </c>
       <c r="B159" s="3" t="s">
@@ -7891,15 +7896,15 @@
       <c r="D159" s="3" t="s">
         <v>1171</v>
       </c>
-      <c r="E159" s="15"/>
-      <c r="F159" s="15"/>
-      <c r="G159" s="15"/>
-      <c r="H159" s="15"/>
-      <c r="I159" s="14"/>
-      <c r="J159" s="14"/>
+      <c r="E159" s="14"/>
+      <c r="F159" s="14"/>
+      <c r="G159" s="14"/>
+      <c r="H159" s="14"/>
+      <c r="I159" s="13"/>
+      <c r="J159" s="13"/>
     </row>
     <row r="160" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="10" t="s">
+      <c r="A160" s="9" t="s">
         <v>914</v>
       </c>
       <c r="B160" s="3" t="s">
@@ -7911,15 +7916,15 @@
       <c r="D160" s="3" t="s">
         <v>1172</v>
       </c>
-      <c r="E160" s="15"/>
-      <c r="F160" s="15"/>
-      <c r="G160" s="15"/>
-      <c r="H160" s="15"/>
-      <c r="I160" s="14"/>
-      <c r="J160" s="14"/>
+      <c r="E160" s="14"/>
+      <c r="F160" s="14"/>
+      <c r="G160" s="14"/>
+      <c r="H160" s="14"/>
+      <c r="I160" s="13"/>
+      <c r="J160" s="13"/>
     </row>
     <row r="161" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="10" t="s">
+      <c r="A161" s="9" t="s">
         <v>897</v>
       </c>
       <c r="B161" s="3" t="s">
@@ -7931,12 +7936,12 @@
       <c r="D161" s="3" t="s">
         <v>1173</v>
       </c>
-      <c r="E161" s="15"/>
-      <c r="F161" s="15"/>
-      <c r="G161" s="15"/>
-      <c r="H161" s="15"/>
-      <c r="I161" s="14"/>
-      <c r="J161" s="14"/>
+      <c r="E161" s="14"/>
+      <c r="F161" s="14"/>
+      <c r="G161" s="14"/>
+      <c r="H161" s="14"/>
+      <c r="I161" s="13"/>
+      <c r="J161" s="13"/>
     </row>
     <row r="162" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
@@ -7951,15 +7956,15 @@
       <c r="D162" s="3" t="s">
         <v>1174</v>
       </c>
-      <c r="E162" s="15"/>
-      <c r="F162" s="15"/>
-      <c r="G162" s="15"/>
-      <c r="H162" s="15"/>
-      <c r="I162" s="14"/>
-      <c r="J162" s="14"/>
+      <c r="E162" s="14"/>
+      <c r="F162" s="14"/>
+      <c r="G162" s="14"/>
+      <c r="H162" s="14"/>
+      <c r="I162" s="13"/>
+      <c r="J162" s="13"/>
     </row>
     <row r="163" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="10" t="s">
+      <c r="A163" s="9" t="s">
         <v>910</v>
       </c>
       <c r="B163" s="3" t="s">
@@ -7971,12 +7976,12 @@
       <c r="D163" s="3" t="s">
         <v>1175</v>
       </c>
-      <c r="E163" s="15"/>
-      <c r="F163" s="15"/>
-      <c r="G163" s="15"/>
-      <c r="H163" s="15"/>
-      <c r="I163" s="14"/>
-      <c r="J163" s="14"/>
+      <c r="E163" s="14"/>
+      <c r="F163" s="14"/>
+      <c r="G163" s="14"/>
+      <c r="H163" s="14"/>
+      <c r="I163" s="13"/>
+      <c r="J163" s="13"/>
     </row>
     <row r="164" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
@@ -7991,12 +7996,12 @@
       <c r="D164" s="3" t="s">
         <v>1176</v>
       </c>
-      <c r="E164" s="15"/>
-      <c r="F164" s="15"/>
-      <c r="G164" s="15"/>
-      <c r="H164" s="15"/>
-      <c r="I164" s="14"/>
-      <c r="J164" s="14"/>
+      <c r="E164" s="14"/>
+      <c r="F164" s="14"/>
+      <c r="G164" s="14"/>
+      <c r="H164" s="14"/>
+      <c r="I164" s="13"/>
+      <c r="J164" s="13"/>
     </row>
     <row r="165" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
@@ -8011,12 +8016,12 @@
       <c r="D165" s="3" t="s">
         <v>1177</v>
       </c>
-      <c r="E165" s="15"/>
-      <c r="F165" s="15"/>
-      <c r="G165" s="15"/>
-      <c r="H165" s="15"/>
-      <c r="I165" s="14"/>
-      <c r="J165" s="14"/>
+      <c r="E165" s="14"/>
+      <c r="F165" s="14"/>
+      <c r="G165" s="14"/>
+      <c r="H165" s="14"/>
+      <c r="I165" s="13"/>
+      <c r="J165" s="13"/>
     </row>
     <row r="166" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
@@ -8031,12 +8036,12 @@
       <c r="D166" s="3" t="s">
         <v>1178</v>
       </c>
-      <c r="E166" s="15"/>
-      <c r="F166" s="15"/>
-      <c r="G166" s="15"/>
-      <c r="H166" s="15"/>
-      <c r="I166" s="14"/>
-      <c r="J166" s="14"/>
+      <c r="E166" s="14"/>
+      <c r="F166" s="14"/>
+      <c r="G166" s="14"/>
+      <c r="H166" s="14"/>
+      <c r="I166" s="13"/>
+      <c r="J166" s="13"/>
     </row>
     <row r="167" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
@@ -8051,12 +8056,12 @@
       <c r="D167" s="3" t="s">
         <v>1179</v>
       </c>
-      <c r="E167" s="15"/>
-      <c r="F167" s="15"/>
-      <c r="G167" s="15"/>
-      <c r="H167" s="15"/>
-      <c r="I167" s="14"/>
-      <c r="J167" s="14"/>
+      <c r="E167" s="14"/>
+      <c r="F167" s="14"/>
+      <c r="G167" s="14"/>
+      <c r="H167" s="14"/>
+      <c r="I167" s="13"/>
+      <c r="J167" s="13"/>
     </row>
     <row r="168" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
@@ -8071,12 +8076,12 @@
       <c r="D168" s="3" t="s">
         <v>1180</v>
       </c>
-      <c r="E168" s="15"/>
-      <c r="F168" s="15"/>
-      <c r="G168" s="15"/>
-      <c r="H168" s="15"/>
-      <c r="I168" s="14"/>
-      <c r="J168" s="14"/>
+      <c r="E168" s="14"/>
+      <c r="F168" s="14"/>
+      <c r="G168" s="14"/>
+      <c r="H168" s="14"/>
+      <c r="I168" s="13"/>
+      <c r="J168" s="13"/>
     </row>
     <row r="169" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
@@ -8091,15 +8096,15 @@
       <c r="D169" s="3" t="s">
         <v>1181</v>
       </c>
-      <c r="E169" s="15"/>
-      <c r="F169" s="15"/>
-      <c r="G169" s="15"/>
-      <c r="H169" s="15"/>
-      <c r="I169" s="14"/>
-      <c r="J169" s="14"/>
+      <c r="E169" s="14"/>
+      <c r="F169" s="14"/>
+      <c r="G169" s="14"/>
+      <c r="H169" s="14"/>
+      <c r="I169" s="13"/>
+      <c r="J169" s="13"/>
     </row>
     <row r="170" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="10" t="s">
+      <c r="A170" s="9" t="s">
         <v>893</v>
       </c>
       <c r="B170" s="3" t="s">
@@ -8111,12 +8116,12 @@
       <c r="D170" s="3" t="s">
         <v>1182</v>
       </c>
-      <c r="E170" s="15"/>
-      <c r="F170" s="15"/>
-      <c r="G170" s="15"/>
-      <c r="H170" s="15"/>
-      <c r="I170" s="14"/>
-      <c r="J170" s="14"/>
+      <c r="E170" s="14"/>
+      <c r="F170" s="14"/>
+      <c r="G170" s="14"/>
+      <c r="H170" s="14"/>
+      <c r="I170" s="13"/>
+      <c r="J170" s="13"/>
     </row>
     <row r="171" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
@@ -8131,12 +8136,12 @@
       <c r="D171" s="3" t="s">
         <v>1183</v>
       </c>
-      <c r="E171" s="15"/>
-      <c r="F171" s="15"/>
-      <c r="G171" s="15"/>
-      <c r="H171" s="15"/>
-      <c r="I171" s="14"/>
-      <c r="J171" s="14"/>
+      <c r="E171" s="14"/>
+      <c r="F171" s="14"/>
+      <c r="G171" s="14"/>
+      <c r="H171" s="14"/>
+      <c r="I171" s="13"/>
+      <c r="J171" s="13"/>
     </row>
     <row r="172" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
@@ -8151,12 +8156,12 @@
       <c r="D172" s="3" t="s">
         <v>1184</v>
       </c>
-      <c r="E172" s="15"/>
-      <c r="F172" s="15"/>
-      <c r="G172" s="15"/>
-      <c r="H172" s="15"/>
-      <c r="I172" s="14"/>
-      <c r="J172" s="14"/>
+      <c r="E172" s="14"/>
+      <c r="F172" s="14"/>
+      <c r="G172" s="14"/>
+      <c r="H172" s="14"/>
+      <c r="I172" s="13"/>
+      <c r="J172" s="13"/>
     </row>
     <row r="173" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
@@ -8171,12 +8176,12 @@
       <c r="D173" s="3" t="s">
         <v>1185</v>
       </c>
-      <c r="E173" s="15"/>
-      <c r="F173" s="15"/>
-      <c r="G173" s="15"/>
-      <c r="H173" s="15"/>
-      <c r="I173" s="14"/>
-      <c r="J173" s="14"/>
+      <c r="E173" s="14"/>
+      <c r="F173" s="14"/>
+      <c r="G173" s="14"/>
+      <c r="H173" s="14"/>
+      <c r="I173" s="13"/>
+      <c r="J173" s="13"/>
     </row>
     <row r="174" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
@@ -8191,12 +8196,12 @@
       <c r="D174" s="3" t="s">
         <v>1186</v>
       </c>
-      <c r="E174" s="15"/>
-      <c r="F174" s="15"/>
-      <c r="G174" s="15"/>
-      <c r="H174" s="15"/>
-      <c r="I174" s="14"/>
-      <c r="J174" s="14"/>
+      <c r="E174" s="14"/>
+      <c r="F174" s="14"/>
+      <c r="G174" s="14"/>
+      <c r="H174" s="14"/>
+      <c r="I174" s="13"/>
+      <c r="J174" s="13"/>
     </row>
     <row r="175" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
@@ -8211,12 +8216,12 @@
       <c r="D175" s="3" t="s">
         <v>1187</v>
       </c>
-      <c r="E175" s="15"/>
-      <c r="F175" s="15"/>
-      <c r="G175" s="15"/>
-      <c r="H175" s="15"/>
-      <c r="I175" s="14"/>
-      <c r="J175" s="14"/>
+      <c r="E175" s="14"/>
+      <c r="F175" s="14"/>
+      <c r="G175" s="14"/>
+      <c r="H175" s="14"/>
+      <c r="I175" s="13"/>
+      <c r="J175" s="13"/>
     </row>
     <row r="176" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
@@ -8231,12 +8236,12 @@
       <c r="D176" s="3" t="s">
         <v>1188</v>
       </c>
-      <c r="E176" s="15"/>
-      <c r="F176" s="15"/>
-      <c r="G176" s="15"/>
-      <c r="H176" s="15"/>
-      <c r="I176" s="14"/>
-      <c r="J176" s="14"/>
+      <c r="E176" s="14"/>
+      <c r="F176" s="14"/>
+      <c r="G176" s="14"/>
+      <c r="H176" s="14"/>
+      <c r="I176" s="13"/>
+      <c r="J176" s="13"/>
     </row>
     <row r="177" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
@@ -8251,12 +8256,12 @@
       <c r="D177" s="3" t="s">
         <v>1189</v>
       </c>
-      <c r="E177" s="15"/>
-      <c r="F177" s="15"/>
-      <c r="G177" s="15"/>
-      <c r="H177" s="15"/>
-      <c r="I177" s="14"/>
-      <c r="J177" s="14"/>
+      <c r="E177" s="14"/>
+      <c r="F177" s="14"/>
+      <c r="G177" s="14"/>
+      <c r="H177" s="14"/>
+      <c r="I177" s="13"/>
+      <c r="J177" s="13"/>
     </row>
     <row r="178" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
@@ -8271,15 +8276,15 @@
       <c r="D178" s="3" t="s">
         <v>1190</v>
       </c>
-      <c r="E178" s="15"/>
-      <c r="F178" s="15"/>
-      <c r="G178" s="15"/>
-      <c r="H178" s="15"/>
-      <c r="I178" s="14"/>
-      <c r="J178" s="14"/>
+      <c r="E178" s="14"/>
+      <c r="F178" s="14"/>
+      <c r="G178" s="14"/>
+      <c r="H178" s="14"/>
+      <c r="I178" s="13"/>
+      <c r="J178" s="13"/>
     </row>
     <row r="179" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="10" t="s">
+      <c r="A179" s="9" t="s">
         <v>950</v>
       </c>
       <c r="B179" s="3" t="s">
@@ -8291,15 +8296,15 @@
       <c r="D179" s="3" t="s">
         <v>1191</v>
       </c>
-      <c r="E179" s="15"/>
-      <c r="F179" s="15"/>
-      <c r="G179" s="15"/>
-      <c r="H179" s="15"/>
-      <c r="I179" s="14"/>
-      <c r="J179" s="14"/>
+      <c r="E179" s="14"/>
+      <c r="F179" s="14"/>
+      <c r="G179" s="14"/>
+      <c r="H179" s="14"/>
+      <c r="I179" s="13"/>
+      <c r="J179" s="13"/>
     </row>
     <row r="180" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="10" t="s">
+      <c r="A180" s="9" t="s">
         <v>949</v>
       </c>
       <c r="B180" s="3" t="s">
@@ -8311,12 +8316,12 @@
       <c r="D180" s="3" t="s">
         <v>1192</v>
       </c>
-      <c r="E180" s="15"/>
-      <c r="F180" s="15"/>
-      <c r="G180" s="15"/>
-      <c r="H180" s="15"/>
-      <c r="I180" s="14"/>
-      <c r="J180" s="14"/>
+      <c r="E180" s="14"/>
+      <c r="F180" s="14"/>
+      <c r="G180" s="14"/>
+      <c r="H180" s="14"/>
+      <c r="I180" s="13"/>
+      <c r="J180" s="13"/>
     </row>
     <row r="181" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
@@ -8331,15 +8336,15 @@
       <c r="D181" s="3" t="s">
         <v>1193</v>
       </c>
-      <c r="E181" s="15"/>
-      <c r="F181" s="15"/>
-      <c r="G181" s="15"/>
-      <c r="H181" s="15"/>
-      <c r="I181" s="14"/>
-      <c r="J181" s="14"/>
+      <c r="E181" s="14"/>
+      <c r="F181" s="14"/>
+      <c r="G181" s="14"/>
+      <c r="H181" s="14"/>
+      <c r="I181" s="13"/>
+      <c r="J181" s="13"/>
     </row>
     <row r="182" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="10" t="s">
+      <c r="A182" s="9" t="s">
         <v>907</v>
       </c>
       <c r="B182" s="3" t="s">
@@ -8351,12 +8356,12 @@
       <c r="D182" s="3" t="s">
         <v>1194</v>
       </c>
-      <c r="E182" s="15"/>
-      <c r="F182" s="15"/>
-      <c r="G182" s="15"/>
-      <c r="H182" s="15"/>
-      <c r="I182" s="14"/>
-      <c r="J182" s="14"/>
+      <c r="E182" s="14"/>
+      <c r="F182" s="14"/>
+      <c r="G182" s="14"/>
+      <c r="H182" s="14"/>
+      <c r="I182" s="13"/>
+      <c r="J182" s="13"/>
     </row>
     <row r="183" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
@@ -8371,15 +8376,15 @@
       <c r="D183" s="3" t="s">
         <v>1195</v>
       </c>
-      <c r="E183" s="15"/>
-      <c r="F183" s="15"/>
-      <c r="G183" s="15"/>
-      <c r="H183" s="15"/>
-      <c r="I183" s="14"/>
-      <c r="J183" s="14"/>
+      <c r="E183" s="14"/>
+      <c r="F183" s="14"/>
+      <c r="G183" s="14"/>
+      <c r="H183" s="14"/>
+      <c r="I183" s="13"/>
+      <c r="J183" s="13"/>
     </row>
     <row r="184" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="10" t="s">
+      <c r="A184" s="9" t="s">
         <v>908</v>
       </c>
       <c r="B184" s="3" t="s">
@@ -8391,12 +8396,12 @@
       <c r="D184" s="3" t="s">
         <v>1196</v>
       </c>
-      <c r="E184" s="15"/>
-      <c r="F184" s="15"/>
-      <c r="G184" s="15"/>
-      <c r="H184" s="15"/>
-      <c r="I184" s="14"/>
-      <c r="J184" s="14"/>
+      <c r="E184" s="14"/>
+      <c r="F184" s="14"/>
+      <c r="G184" s="14"/>
+      <c r="H184" s="14"/>
+      <c r="I184" s="13"/>
+      <c r="J184" s="13"/>
     </row>
     <row r="185" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
@@ -8411,12 +8416,12 @@
       <c r="D185" s="3" t="s">
         <v>1197</v>
       </c>
-      <c r="E185" s="15"/>
-      <c r="F185" s="15"/>
-      <c r="G185" s="15"/>
-      <c r="H185" s="15"/>
-      <c r="I185" s="14"/>
-      <c r="J185" s="14"/>
+      <c r="E185" s="14"/>
+      <c r="F185" s="14"/>
+      <c r="G185" s="14"/>
+      <c r="H185" s="14"/>
+      <c r="I185" s="13"/>
+      <c r="J185" s="13"/>
     </row>
     <row r="186" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
@@ -8431,12 +8436,12 @@
       <c r="D186" s="3" t="s">
         <v>1198</v>
       </c>
-      <c r="E186" s="15"/>
-      <c r="F186" s="15"/>
-      <c r="G186" s="15"/>
-      <c r="H186" s="15"/>
-      <c r="I186" s="14"/>
-      <c r="J186" s="14"/>
+      <c r="E186" s="14"/>
+      <c r="F186" s="14"/>
+      <c r="G186" s="14"/>
+      <c r="H186" s="14"/>
+      <c r="I186" s="13"/>
+      <c r="J186" s="13"/>
     </row>
     <row r="187" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
@@ -8451,12 +8456,12 @@
       <c r="D187" s="3" t="s">
         <v>1199</v>
       </c>
-      <c r="E187" s="15"/>
-      <c r="F187" s="15"/>
-      <c r="G187" s="15"/>
-      <c r="H187" s="15"/>
-      <c r="I187" s="14"/>
-      <c r="J187" s="14"/>
+      <c r="E187" s="14"/>
+      <c r="F187" s="14"/>
+      <c r="G187" s="14"/>
+      <c r="H187" s="14"/>
+      <c r="I187" s="13"/>
+      <c r="J187" s="13"/>
     </row>
     <row r="188" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
@@ -8471,12 +8476,12 @@
       <c r="D188" s="3" t="s">
         <v>1200</v>
       </c>
-      <c r="E188" s="15"/>
-      <c r="F188" s="15"/>
-      <c r="G188" s="15"/>
-      <c r="H188" s="15"/>
-      <c r="I188" s="14"/>
-      <c r="J188" s="14"/>
+      <c r="E188" s="14"/>
+      <c r="F188" s="14"/>
+      <c r="G188" s="14"/>
+      <c r="H188" s="14"/>
+      <c r="I188" s="13"/>
+      <c r="J188" s="13"/>
     </row>
     <row r="189" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
@@ -8491,12 +8496,12 @@
       <c r="D189" s="3" t="s">
         <v>1201</v>
       </c>
-      <c r="E189" s="15"/>
-      <c r="F189" s="15"/>
-      <c r="G189" s="15"/>
-      <c r="H189" s="15"/>
-      <c r="I189" s="14"/>
-      <c r="J189" s="14"/>
+      <c r="E189" s="14"/>
+      <c r="F189" s="14"/>
+      <c r="G189" s="14"/>
+      <c r="H189" s="14"/>
+      <c r="I189" s="13"/>
+      <c r="J189" s="13"/>
     </row>
     <row r="190" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
@@ -8511,12 +8516,12 @@
       <c r="D190" s="3" t="s">
         <v>1202</v>
       </c>
-      <c r="E190" s="15"/>
-      <c r="F190" s="15"/>
-      <c r="G190" s="15"/>
-      <c r="H190" s="15"/>
-      <c r="I190" s="14"/>
-      <c r="J190" s="14"/>
+      <c r="E190" s="14"/>
+      <c r="F190" s="14"/>
+      <c r="G190" s="14"/>
+      <c r="H190" s="14"/>
+      <c r="I190" s="13"/>
+      <c r="J190" s="13"/>
     </row>
     <row r="191" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
@@ -8531,12 +8536,12 @@
       <c r="D191" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="E191" s="15"/>
-      <c r="F191" s="15"/>
-      <c r="G191" s="15"/>
-      <c r="H191" s="15"/>
-      <c r="I191" s="14"/>
-      <c r="J191" s="14"/>
+      <c r="E191" s="14"/>
+      <c r="F191" s="14"/>
+      <c r="G191" s="14"/>
+      <c r="H191" s="14"/>
+      <c r="I191" s="13"/>
+      <c r="J191" s="13"/>
     </row>
     <row r="192" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
@@ -8551,12 +8556,12 @@
       <c r="D192" s="3" t="s">
         <v>1204</v>
       </c>
-      <c r="E192" s="15"/>
-      <c r="F192" s="15"/>
-      <c r="G192" s="15"/>
-      <c r="H192" s="15"/>
-      <c r="I192" s="14"/>
-      <c r="J192" s="14"/>
+      <c r="E192" s="14"/>
+      <c r="F192" s="14"/>
+      <c r="G192" s="14"/>
+      <c r="H192" s="14"/>
+      <c r="I192" s="13"/>
+      <c r="J192" s="13"/>
     </row>
     <row r="193" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
@@ -8571,12 +8576,12 @@
       <c r="D193" s="3" t="s">
         <v>1205</v>
       </c>
-      <c r="E193" s="15"/>
-      <c r="F193" s="15"/>
-      <c r="G193" s="15"/>
-      <c r="H193" s="15"/>
-      <c r="I193" s="14"/>
-      <c r="J193" s="14"/>
+      <c r="E193" s="14"/>
+      <c r="F193" s="14"/>
+      <c r="G193" s="14"/>
+      <c r="H193" s="14"/>
+      <c r="I193" s="13"/>
+      <c r="J193" s="13"/>
     </row>
     <row r="194" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
@@ -8591,12 +8596,12 @@
       <c r="D194" s="3" t="s">
         <v>1206</v>
       </c>
-      <c r="E194" s="15"/>
-      <c r="F194" s="15"/>
-      <c r="G194" s="15"/>
-      <c r="H194" s="15"/>
-      <c r="I194" s="14"/>
-      <c r="J194" s="14"/>
+      <c r="E194" s="14"/>
+      <c r="F194" s="14"/>
+      <c r="G194" s="14"/>
+      <c r="H194" s="14"/>
+      <c r="I194" s="13"/>
+      <c r="J194" s="13"/>
     </row>
     <row r="195" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
@@ -8611,12 +8616,12 @@
       <c r="D195" s="3" t="s">
         <v>1207</v>
       </c>
-      <c r="E195" s="15"/>
-      <c r="F195" s="15"/>
-      <c r="G195" s="15"/>
-      <c r="H195" s="15"/>
-      <c r="I195" s="14"/>
-      <c r="J195" s="14"/>
+      <c r="E195" s="14"/>
+      <c r="F195" s="14"/>
+      <c r="G195" s="14"/>
+      <c r="H195" s="14"/>
+      <c r="I195" s="13"/>
+      <c r="J195" s="13"/>
     </row>
     <row r="196" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
@@ -8631,12 +8636,12 @@
       <c r="D196" s="3" t="s">
         <v>1208</v>
       </c>
-      <c r="E196" s="15"/>
-      <c r="F196" s="15"/>
-      <c r="G196" s="15"/>
-      <c r="H196" s="15"/>
-      <c r="I196" s="14"/>
-      <c r="J196" s="14"/>
+      <c r="E196" s="14"/>
+      <c r="F196" s="14"/>
+      <c r="G196" s="14"/>
+      <c r="H196" s="14"/>
+      <c r="I196" s="13"/>
+      <c r="J196" s="13"/>
     </row>
     <row r="197" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
@@ -8651,12 +8656,12 @@
       <c r="D197" s="3" t="s">
         <v>1209</v>
       </c>
-      <c r="E197" s="15"/>
-      <c r="F197" s="15"/>
-      <c r="G197" s="15"/>
-      <c r="H197" s="15"/>
-      <c r="I197" s="14"/>
-      <c r="J197" s="14"/>
+      <c r="E197" s="14"/>
+      <c r="F197" s="14"/>
+      <c r="G197" s="14"/>
+      <c r="H197" s="14"/>
+      <c r="I197" s="13"/>
+      <c r="J197" s="13"/>
     </row>
     <row r="198" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
@@ -8671,15 +8676,15 @@
       <c r="D198" s="3" t="s">
         <v>1210</v>
       </c>
-      <c r="E198" s="15"/>
-      <c r="F198" s="15"/>
-      <c r="G198" s="15"/>
-      <c r="H198" s="15"/>
-      <c r="I198" s="14"/>
-      <c r="J198" s="14"/>
+      <c r="E198" s="14"/>
+      <c r="F198" s="14"/>
+      <c r="G198" s="14"/>
+      <c r="H198" s="14"/>
+      <c r="I198" s="13"/>
+      <c r="J198" s="13"/>
     </row>
     <row r="199" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="10" t="s">
+      <c r="A199" s="9" t="s">
         <v>887</v>
       </c>
       <c r="B199" s="3" t="s">
@@ -8691,12 +8696,12 @@
       <c r="D199" s="3" t="s">
         <v>1211</v>
       </c>
-      <c r="E199" s="15"/>
-      <c r="F199" s="15"/>
-      <c r="G199" s="15"/>
-      <c r="H199" s="15"/>
-      <c r="I199" s="14"/>
-      <c r="J199" s="14"/>
+      <c r="E199" s="14"/>
+      <c r="F199" s="14"/>
+      <c r="G199" s="14"/>
+      <c r="H199" s="14"/>
+      <c r="I199" s="13"/>
+      <c r="J199" s="13"/>
     </row>
     <row r="200" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
@@ -8711,12 +8716,12 @@
       <c r="D200" s="3" t="s">
         <v>1212</v>
       </c>
-      <c r="E200" s="15"/>
-      <c r="F200" s="15"/>
-      <c r="G200" s="15"/>
-      <c r="H200" s="15"/>
-      <c r="I200" s="14"/>
-      <c r="J200" s="14"/>
+      <c r="E200" s="14"/>
+      <c r="F200" s="14"/>
+      <c r="G200" s="14"/>
+      <c r="H200" s="14"/>
+      <c r="I200" s="13"/>
+      <c r="J200" s="13"/>
     </row>
     <row r="201" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
@@ -8731,12 +8736,12 @@
       <c r="D201" s="3" t="s">
         <v>1213</v>
       </c>
-      <c r="E201" s="15"/>
-      <c r="F201" s="15"/>
-      <c r="G201" s="15"/>
-      <c r="H201" s="15"/>
-      <c r="I201" s="14"/>
-      <c r="J201" s="14"/>
+      <c r="E201" s="14"/>
+      <c r="F201" s="14"/>
+      <c r="G201" s="14"/>
+      <c r="H201" s="14"/>
+      <c r="I201" s="13"/>
+      <c r="J201" s="13"/>
     </row>
     <row r="202" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
@@ -8751,12 +8756,12 @@
       <c r="D202" s="3" t="s">
         <v>1214</v>
       </c>
-      <c r="E202" s="15"/>
-      <c r="F202" s="15"/>
-      <c r="G202" s="15"/>
-      <c r="H202" s="15"/>
-      <c r="I202" s="14"/>
-      <c r="J202" s="14"/>
+      <c r="E202" s="14"/>
+      <c r="F202" s="14"/>
+      <c r="G202" s="14"/>
+      <c r="H202" s="14"/>
+      <c r="I202" s="13"/>
+      <c r="J202" s="13"/>
     </row>
     <row r="203" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
@@ -8771,12 +8776,12 @@
       <c r="D203" s="3" t="s">
         <v>1215</v>
       </c>
-      <c r="E203" s="15"/>
-      <c r="F203" s="15"/>
-      <c r="G203" s="15"/>
-      <c r="H203" s="15"/>
-      <c r="I203" s="14"/>
-      <c r="J203" s="14"/>
+      <c r="E203" s="14"/>
+      <c r="F203" s="14"/>
+      <c r="G203" s="14"/>
+      <c r="H203" s="14"/>
+      <c r="I203" s="13"/>
+      <c r="J203" s="13"/>
     </row>
     <row r="204" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
@@ -8791,12 +8796,12 @@
       <c r="D204" s="3" t="s">
         <v>1216</v>
       </c>
-      <c r="E204" s="15"/>
-      <c r="F204" s="15"/>
-      <c r="G204" s="15"/>
-      <c r="H204" s="15"/>
-      <c r="I204" s="14"/>
-      <c r="J204" s="14"/>
+      <c r="E204" s="14"/>
+      <c r="F204" s="14"/>
+      <c r="G204" s="14"/>
+      <c r="H204" s="14"/>
+      <c r="I204" s="13"/>
+      <c r="J204" s="13"/>
     </row>
     <row r="205" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
@@ -8811,15 +8816,15 @@
       <c r="D205" s="3" t="s">
         <v>1217</v>
       </c>
-      <c r="E205" s="15"/>
-      <c r="F205" s="15"/>
-      <c r="G205" s="15"/>
-      <c r="H205" s="15"/>
-      <c r="I205" s="14"/>
-      <c r="J205" s="14"/>
+      <c r="E205" s="14"/>
+      <c r="F205" s="14"/>
+      <c r="G205" s="14"/>
+      <c r="H205" s="14"/>
+      <c r="I205" s="13"/>
+      <c r="J205" s="13"/>
     </row>
     <row r="206" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="10" t="s">
+      <c r="A206" s="9" t="s">
         <v>872</v>
       </c>
       <c r="B206" s="3" t="s">
@@ -8831,15 +8836,15 @@
       <c r="D206" s="3" t="s">
         <v>1218</v>
       </c>
-      <c r="E206" s="15"/>
-      <c r="F206" s="15"/>
-      <c r="G206" s="15"/>
-      <c r="H206" s="15"/>
-      <c r="I206" s="14"/>
-      <c r="J206" s="14"/>
+      <c r="E206" s="14"/>
+      <c r="F206" s="14"/>
+      <c r="G206" s="14"/>
+      <c r="H206" s="14"/>
+      <c r="I206" s="13"/>
+      <c r="J206" s="13"/>
     </row>
     <row r="207" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="10" t="s">
+      <c r="A207" s="9" t="s">
         <v>878</v>
       </c>
       <c r="B207" s="3" t="s">
@@ -8851,12 +8856,12 @@
       <c r="D207" s="3" t="s">
         <v>1219</v>
       </c>
-      <c r="E207" s="15"/>
-      <c r="F207" s="15"/>
-      <c r="G207" s="15"/>
-      <c r="H207" s="15"/>
-      <c r="I207" s="14"/>
-      <c r="J207" s="14"/>
+      <c r="E207" s="14"/>
+      <c r="F207" s="14"/>
+      <c r="G207" s="14"/>
+      <c r="H207" s="14"/>
+      <c r="I207" s="13"/>
+      <c r="J207" s="13"/>
     </row>
     <row r="208" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
@@ -8871,12 +8876,12 @@
       <c r="D208" s="3" t="s">
         <v>1220</v>
       </c>
-      <c r="E208" s="15"/>
-      <c r="F208" s="15"/>
-      <c r="G208" s="15"/>
-      <c r="H208" s="15"/>
-      <c r="I208" s="14"/>
-      <c r="J208" s="14"/>
+      <c r="E208" s="14"/>
+      <c r="F208" s="14"/>
+      <c r="G208" s="14"/>
+      <c r="H208" s="14"/>
+      <c r="I208" s="13"/>
+      <c r="J208" s="13"/>
     </row>
     <row r="209" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
@@ -8891,12 +8896,12 @@
       <c r="D209" s="3" t="s">
         <v>1221</v>
       </c>
-      <c r="E209" s="15"/>
-      <c r="F209" s="15"/>
-      <c r="G209" s="15"/>
-      <c r="H209" s="15"/>
-      <c r="I209" s="14"/>
-      <c r="J209" s="14"/>
+      <c r="E209" s="14"/>
+      <c r="F209" s="14"/>
+      <c r="G209" s="14"/>
+      <c r="H209" s="14"/>
+      <c r="I209" s="13"/>
+      <c r="J209" s="13"/>
     </row>
     <row r="210" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
@@ -8911,12 +8916,12 @@
       <c r="D210" s="3" t="s">
         <v>1222</v>
       </c>
-      <c r="E210" s="15"/>
-      <c r="F210" s="15"/>
-      <c r="G210" s="15"/>
-      <c r="H210" s="15"/>
-      <c r="I210" s="14"/>
-      <c r="J210" s="14"/>
+      <c r="E210" s="14"/>
+      <c r="F210" s="14"/>
+      <c r="G210" s="14"/>
+      <c r="H210" s="14"/>
+      <c r="I210" s="13"/>
+      <c r="J210" s="13"/>
     </row>
     <row r="211" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
@@ -8931,12 +8936,12 @@
       <c r="D211" s="3" t="s">
         <v>1223</v>
       </c>
-      <c r="E211" s="15"/>
-      <c r="F211" s="15"/>
-      <c r="G211" s="15"/>
-      <c r="H211" s="15"/>
-      <c r="I211" s="14"/>
-      <c r="J211" s="14"/>
+      <c r="E211" s="14"/>
+      <c r="F211" s="14"/>
+      <c r="G211" s="14"/>
+      <c r="H211" s="14"/>
+      <c r="I211" s="13"/>
+      <c r="J211" s="13"/>
     </row>
     <row r="212" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
@@ -8951,12 +8956,12 @@
       <c r="D212" s="3" t="s">
         <v>1224</v>
       </c>
-      <c r="E212" s="15"/>
-      <c r="F212" s="15"/>
-      <c r="G212" s="15"/>
-      <c r="H212" s="15"/>
-      <c r="I212" s="14"/>
-      <c r="J212" s="14"/>
+      <c r="E212" s="14"/>
+      <c r="F212" s="14"/>
+      <c r="G212" s="14"/>
+      <c r="H212" s="14"/>
+      <c r="I212" s="13"/>
+      <c r="J212" s="13"/>
     </row>
     <row r="213" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
@@ -8971,12 +8976,12 @@
       <c r="D213" s="3" t="s">
         <v>1225</v>
       </c>
-      <c r="E213" s="15"/>
-      <c r="F213" s="15"/>
-      <c r="G213" s="15"/>
-      <c r="H213" s="15"/>
-      <c r="I213" s="14"/>
-      <c r="J213" s="14"/>
+      <c r="E213" s="14"/>
+      <c r="F213" s="14"/>
+      <c r="G213" s="14"/>
+      <c r="H213" s="14"/>
+      <c r="I213" s="13"/>
+      <c r="J213" s="13"/>
     </row>
     <row r="214" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
@@ -8991,15 +8996,15 @@
       <c r="D214" s="3" t="s">
         <v>1226</v>
       </c>
-      <c r="E214" s="15"/>
-      <c r="F214" s="15"/>
-      <c r="G214" s="15"/>
-      <c r="H214" s="15"/>
-      <c r="I214" s="14"/>
-      <c r="J214" s="14"/>
+      <c r="E214" s="14"/>
+      <c r="F214" s="14"/>
+      <c r="G214" s="14"/>
+      <c r="H214" s="14"/>
+      <c r="I214" s="13"/>
+      <c r="J214" s="13"/>
     </row>
     <row r="215" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="10" t="s">
+      <c r="A215" s="9" t="s">
         <v>931</v>
       </c>
       <c r="B215" s="3" t="s">
@@ -9011,12 +9016,12 @@
       <c r="D215" s="3" t="s">
         <v>1227</v>
       </c>
-      <c r="E215" s="15"/>
-      <c r="F215" s="15"/>
-      <c r="G215" s="15"/>
-      <c r="H215" s="15"/>
-      <c r="I215" s="14"/>
-      <c r="J215" s="14"/>
+      <c r="E215" s="14"/>
+      <c r="F215" s="14"/>
+      <c r="G215" s="14"/>
+      <c r="H215" s="14"/>
+      <c r="I215" s="13"/>
+      <c r="J215" s="13"/>
     </row>
     <row r="216" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
@@ -9031,15 +9036,15 @@
       <c r="D216" s="3" t="s">
         <v>1228</v>
       </c>
-      <c r="E216" s="15"/>
-      <c r="F216" s="15"/>
-      <c r="G216" s="15"/>
-      <c r="H216" s="15"/>
-      <c r="I216" s="14"/>
-      <c r="J216" s="14"/>
+      <c r="E216" s="14"/>
+      <c r="F216" s="14"/>
+      <c r="G216" s="14"/>
+      <c r="H216" s="14"/>
+      <c r="I216" s="13"/>
+      <c r="J216" s="13"/>
     </row>
     <row r="217" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="10" t="s">
+      <c r="A217" s="9" t="s">
         <v>930</v>
       </c>
       <c r="B217" s="3" t="s">
@@ -9051,12 +9056,12 @@
       <c r="D217" s="3" t="s">
         <v>1229</v>
       </c>
-      <c r="E217" s="15"/>
-      <c r="F217" s="15"/>
-      <c r="G217" s="15"/>
-      <c r="H217" s="15"/>
-      <c r="I217" s="14"/>
-      <c r="J217" s="14"/>
+      <c r="E217" s="14"/>
+      <c r="F217" s="14"/>
+      <c r="G217" s="14"/>
+      <c r="H217" s="14"/>
+      <c r="I217" s="13"/>
+      <c r="J217" s="13"/>
     </row>
     <row r="218" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
@@ -9071,12 +9076,12 @@
       <c r="D218" s="3" t="s">
         <v>1230</v>
       </c>
-      <c r="E218" s="15"/>
-      <c r="F218" s="15"/>
-      <c r="G218" s="15"/>
-      <c r="H218" s="15"/>
-      <c r="I218" s="14"/>
-      <c r="J218" s="14"/>
+      <c r="E218" s="14"/>
+      <c r="F218" s="14"/>
+      <c r="G218" s="14"/>
+      <c r="H218" s="14"/>
+      <c r="I218" s="13"/>
+      <c r="J218" s="13"/>
     </row>
     <row r="219" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
@@ -9091,12 +9096,12 @@
       <c r="D219" s="3" t="s">
         <v>1231</v>
       </c>
-      <c r="E219" s="15"/>
-      <c r="F219" s="15"/>
-      <c r="G219" s="15"/>
-      <c r="H219" s="15"/>
-      <c r="I219" s="14"/>
-      <c r="J219" s="14"/>
+      <c r="E219" s="14"/>
+      <c r="F219" s="14"/>
+      <c r="G219" s="14"/>
+      <c r="H219" s="14"/>
+      <c r="I219" s="13"/>
+      <c r="J219" s="13"/>
     </row>
     <row r="220" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
@@ -9111,12 +9116,12 @@
       <c r="D220" s="3" t="s">
         <v>1232</v>
       </c>
-      <c r="E220" s="15"/>
-      <c r="F220" s="15"/>
-      <c r="G220" s="15"/>
-      <c r="H220" s="15"/>
-      <c r="I220" s="14"/>
-      <c r="J220" s="14"/>
+      <c r="E220" s="14"/>
+      <c r="F220" s="14"/>
+      <c r="G220" s="14"/>
+      <c r="H220" s="14"/>
+      <c r="I220" s="13"/>
+      <c r="J220" s="13"/>
     </row>
     <row r="221" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
@@ -9131,12 +9136,12 @@
       <c r="D221" s="3" t="s">
         <v>1233</v>
       </c>
-      <c r="E221" s="15"/>
-      <c r="F221" s="15"/>
-      <c r="G221" s="15"/>
-      <c r="H221" s="15"/>
-      <c r="I221" s="14"/>
-      <c r="J221" s="14"/>
+      <c r="E221" s="14"/>
+      <c r="F221" s="14"/>
+      <c r="G221" s="14"/>
+      <c r="H221" s="14"/>
+      <c r="I221" s="13"/>
+      <c r="J221" s="13"/>
     </row>
     <row r="222" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
@@ -9151,12 +9156,12 @@
       <c r="D222" s="3" t="s">
         <v>1234</v>
       </c>
-      <c r="E222" s="15"/>
-      <c r="F222" s="15"/>
-      <c r="G222" s="15"/>
-      <c r="H222" s="15"/>
-      <c r="I222" s="14"/>
-      <c r="J222" s="14"/>
+      <c r="E222" s="14"/>
+      <c r="F222" s="14"/>
+      <c r="G222" s="14"/>
+      <c r="H222" s="14"/>
+      <c r="I222" s="13"/>
+      <c r="J222" s="13"/>
     </row>
     <row r="223" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
@@ -9171,12 +9176,12 @@
       <c r="D223" s="3" t="s">
         <v>1237</v>
       </c>
-      <c r="E223" s="15"/>
-      <c r="F223" s="15"/>
-      <c r="G223" s="15"/>
-      <c r="H223" s="15"/>
-      <c r="I223" s="14"/>
-      <c r="J223" s="14"/>
+      <c r="E223" s="14"/>
+      <c r="F223" s="14"/>
+      <c r="G223" s="14"/>
+      <c r="H223" s="14"/>
+      <c r="I223" s="13"/>
+      <c r="J223" s="13"/>
     </row>
     <row r="224" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
@@ -9191,12 +9196,12 @@
       <c r="D224" s="3" t="s">
         <v>1235</v>
       </c>
-      <c r="E224" s="15"/>
-      <c r="F224" s="15"/>
-      <c r="G224" s="15"/>
-      <c r="H224" s="15"/>
-      <c r="I224" s="14"/>
-      <c r="J224" s="14"/>
+      <c r="E224" s="14"/>
+      <c r="F224" s="14"/>
+      <c r="G224" s="14"/>
+      <c r="H224" s="14"/>
+      <c r="I224" s="13"/>
+      <c r="J224" s="13"/>
     </row>
     <row r="225" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
@@ -9211,12 +9216,12 @@
       <c r="D225" s="3" t="s">
         <v>1236</v>
       </c>
-      <c r="E225" s="15"/>
-      <c r="F225" s="15"/>
-      <c r="G225" s="15"/>
-      <c r="H225" s="15"/>
-      <c r="I225" s="14"/>
-      <c r="J225" s="14"/>
+      <c r="E225" s="14"/>
+      <c r="F225" s="14"/>
+      <c r="G225" s="14"/>
+      <c r="H225" s="14"/>
+      <c r="I225" s="13"/>
+      <c r="J225" s="13"/>
     </row>
     <row r="226" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
@@ -9231,15 +9236,15 @@
       <c r="D226" s="3" t="s">
         <v>1238</v>
       </c>
-      <c r="E226" s="15"/>
-      <c r="F226" s="15"/>
-      <c r="G226" s="15"/>
-      <c r="H226" s="15"/>
-      <c r="I226" s="14"/>
-      <c r="J226" s="14"/>
+      <c r="E226" s="14"/>
+      <c r="F226" s="14"/>
+      <c r="G226" s="14"/>
+      <c r="H226" s="14"/>
+      <c r="I226" s="13"/>
+      <c r="J226" s="13"/>
     </row>
     <row r="227" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="10" t="s">
+      <c r="A227" s="9" t="s">
         <v>886</v>
       </c>
       <c r="B227" s="3" t="s">
@@ -9251,12 +9256,12 @@
       <c r="D227" s="3" t="s">
         <v>1239</v>
       </c>
-      <c r="E227" s="15"/>
-      <c r="F227" s="15"/>
-      <c r="G227" s="15"/>
-      <c r="H227" s="15"/>
-      <c r="I227" s="14"/>
-      <c r="J227" s="14"/>
+      <c r="E227" s="14"/>
+      <c r="F227" s="14"/>
+      <c r="G227" s="14"/>
+      <c r="H227" s="14"/>
+      <c r="I227" s="13"/>
+      <c r="J227" s="13"/>
     </row>
     <row r="228" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
@@ -9271,12 +9276,12 @@
       <c r="D228" s="3" t="s">
         <v>1240</v>
       </c>
-      <c r="E228" s="15"/>
-      <c r="F228" s="15"/>
-      <c r="G228" s="15"/>
-      <c r="H228" s="15"/>
-      <c r="I228" s="14"/>
-      <c r="J228" s="14"/>
+      <c r="E228" s="14"/>
+      <c r="F228" s="14"/>
+      <c r="G228" s="14"/>
+      <c r="H228" s="14"/>
+      <c r="I228" s="13"/>
+      <c r="J228" s="13"/>
     </row>
     <row r="229" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
@@ -9291,12 +9296,12 @@
       <c r="D229" s="3" t="s">
         <v>1241</v>
       </c>
-      <c r="E229" s="15"/>
-      <c r="F229" s="15"/>
-      <c r="G229" s="15"/>
-      <c r="H229" s="15"/>
-      <c r="I229" s="14"/>
-      <c r="J229" s="14"/>
+      <c r="E229" s="14"/>
+      <c r="F229" s="14"/>
+      <c r="G229" s="14"/>
+      <c r="H229" s="14"/>
+      <c r="I229" s="13"/>
+      <c r="J229" s="13"/>
     </row>
     <row r="230" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="4" t="s">
@@ -9311,12 +9316,12 @@
       <c r="D230" s="3" t="s">
         <v>1242</v>
       </c>
-      <c r="E230" s="15"/>
-      <c r="F230" s="15"/>
-      <c r="G230" s="15"/>
-      <c r="H230" s="15"/>
-      <c r="I230" s="14"/>
-      <c r="J230" s="14"/>
+      <c r="E230" s="14"/>
+      <c r="F230" s="14"/>
+      <c r="G230" s="14"/>
+      <c r="H230" s="14"/>
+      <c r="I230" s="13"/>
+      <c r="J230" s="13"/>
     </row>
     <row r="231" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
@@ -9331,12 +9336,12 @@
       <c r="D231" s="3" t="s">
         <v>1243</v>
       </c>
-      <c r="E231" s="15"/>
-      <c r="F231" s="15"/>
-      <c r="G231" s="15"/>
-      <c r="H231" s="15"/>
-      <c r="I231" s="14"/>
-      <c r="J231" s="14"/>
+      <c r="E231" s="14"/>
+      <c r="F231" s="14"/>
+      <c r="G231" s="14"/>
+      <c r="H231" s="14"/>
+      <c r="I231" s="13"/>
+      <c r="J231" s="13"/>
     </row>
     <row r="232" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
@@ -9351,12 +9356,12 @@
       <c r="D232" s="3" t="s">
         <v>1244</v>
       </c>
-      <c r="E232" s="15"/>
-      <c r="F232" s="15"/>
-      <c r="G232" s="15"/>
-      <c r="H232" s="15"/>
-      <c r="I232" s="14"/>
-      <c r="J232" s="14"/>
+      <c r="E232" s="14"/>
+      <c r="F232" s="14"/>
+      <c r="G232" s="14"/>
+      <c r="H232" s="14"/>
+      <c r="I232" s="13"/>
+      <c r="J232" s="13"/>
     </row>
     <row r="233" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
@@ -9371,12 +9376,12 @@
       <c r="D233" s="3" t="s">
         <v>1245</v>
       </c>
-      <c r="E233" s="15"/>
-      <c r="F233" s="15"/>
-      <c r="G233" s="15"/>
-      <c r="H233" s="15"/>
-      <c r="I233" s="14"/>
-      <c r="J233" s="14"/>
+      <c r="E233" s="14"/>
+      <c r="F233" s="14"/>
+      <c r="G233" s="14"/>
+      <c r="H233" s="14"/>
+      <c r="I233" s="13"/>
+      <c r="J233" s="13"/>
     </row>
     <row r="234" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="4" t="s">
@@ -9391,12 +9396,12 @@
       <c r="D234" s="3" t="s">
         <v>1246</v>
       </c>
-      <c r="E234" s="15"/>
-      <c r="F234" s="15"/>
-      <c r="G234" s="15"/>
-      <c r="H234" s="15"/>
-      <c r="I234" s="14"/>
-      <c r="J234" s="14"/>
+      <c r="E234" s="14"/>
+      <c r="F234" s="14"/>
+      <c r="G234" s="14"/>
+      <c r="H234" s="14"/>
+      <c r="I234" s="13"/>
+      <c r="J234" s="13"/>
     </row>
     <row r="235" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="s">
@@ -9411,12 +9416,12 @@
       <c r="D235" s="3" t="s">
         <v>1247</v>
       </c>
-      <c r="E235" s="15"/>
-      <c r="F235" s="15"/>
-      <c r="G235" s="15"/>
-      <c r="H235" s="15"/>
-      <c r="I235" s="14"/>
-      <c r="J235" s="14"/>
+      <c r="E235" s="14"/>
+      <c r="F235" s="14"/>
+      <c r="G235" s="14"/>
+      <c r="H235" s="14"/>
+      <c r="I235" s="13"/>
+      <c r="J235" s="13"/>
     </row>
     <row r="236" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
@@ -9431,12 +9436,12 @@
       <c r="D236" s="3" t="s">
         <v>1248</v>
       </c>
-      <c r="E236" s="15"/>
-      <c r="F236" s="15"/>
-      <c r="G236" s="15"/>
-      <c r="H236" s="15"/>
-      <c r="I236" s="14"/>
-      <c r="J236" s="14"/>
+      <c r="E236" s="14"/>
+      <c r="F236" s="14"/>
+      <c r="G236" s="14"/>
+      <c r="H236" s="14"/>
+      <c r="I236" s="13"/>
+      <c r="J236" s="13"/>
     </row>
     <row r="237" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="4" t="s">
@@ -9451,12 +9456,12 @@
       <c r="D237" s="3" t="s">
         <v>1249</v>
       </c>
-      <c r="E237" s="15"/>
-      <c r="F237" s="15"/>
-      <c r="G237" s="15"/>
-      <c r="H237" s="15"/>
-      <c r="I237" s="14"/>
-      <c r="J237" s="14"/>
+      <c r="E237" s="14"/>
+      <c r="F237" s="14"/>
+      <c r="G237" s="14"/>
+      <c r="H237" s="14"/>
+      <c r="I237" s="13"/>
+      <c r="J237" s="13"/>
     </row>
     <row r="238" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="s">
@@ -9471,12 +9476,12 @@
       <c r="D238" s="3" t="s">
         <v>1250</v>
       </c>
-      <c r="E238" s="15"/>
-      <c r="F238" s="15"/>
-      <c r="G238" s="15"/>
-      <c r="H238" s="15"/>
-      <c r="I238" s="14"/>
-      <c r="J238" s="14"/>
+      <c r="E238" s="14"/>
+      <c r="F238" s="14"/>
+      <c r="G238" s="14"/>
+      <c r="H238" s="14"/>
+      <c r="I238" s="13"/>
+      <c r="J238" s="13"/>
     </row>
     <row r="239" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="4" t="s">
@@ -9491,12 +9496,12 @@
       <c r="D239" s="3" t="s">
         <v>1251</v>
       </c>
-      <c r="E239" s="15"/>
-      <c r="F239" s="15"/>
-      <c r="G239" s="15"/>
-      <c r="H239" s="15"/>
-      <c r="I239" s="14"/>
-      <c r="J239" s="14"/>
+      <c r="E239" s="14"/>
+      <c r="F239" s="14"/>
+      <c r="G239" s="14"/>
+      <c r="H239" s="14"/>
+      <c r="I239" s="13"/>
+      <c r="J239" s="13"/>
     </row>
     <row r="240" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
@@ -9511,15 +9516,15 @@
       <c r="D240" s="3" t="s">
         <v>1252</v>
       </c>
-      <c r="E240" s="15"/>
-      <c r="F240" s="15"/>
-      <c r="G240" s="15"/>
-      <c r="H240" s="15"/>
-      <c r="I240" s="14"/>
-      <c r="J240" s="14"/>
+      <c r="E240" s="14"/>
+      <c r="F240" s="14"/>
+      <c r="G240" s="14"/>
+      <c r="H240" s="14"/>
+      <c r="I240" s="13"/>
+      <c r="J240" s="13"/>
     </row>
     <row r="241" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="10" t="s">
+      <c r="A241" s="9" t="s">
         <v>879</v>
       </c>
       <c r="B241" s="3" t="s">
@@ -9531,12 +9536,12 @@
       <c r="D241" s="3" t="s">
         <v>1253</v>
       </c>
-      <c r="E241" s="15"/>
-      <c r="F241" s="15"/>
-      <c r="G241" s="15"/>
-      <c r="H241" s="15"/>
-      <c r="I241" s="14"/>
-      <c r="J241" s="14"/>
+      <c r="E241" s="14"/>
+      <c r="F241" s="14"/>
+      <c r="G241" s="14"/>
+      <c r="H241" s="14"/>
+      <c r="I241" s="13"/>
+      <c r="J241" s="13"/>
     </row>
     <row r="242" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="4" t="s">
@@ -9551,12 +9556,12 @@
       <c r="D242" s="3" t="s">
         <v>1254</v>
       </c>
-      <c r="E242" s="15"/>
-      <c r="F242" s="15"/>
-      <c r="G242" s="15"/>
-      <c r="H242" s="15"/>
-      <c r="I242" s="14"/>
-      <c r="J242" s="14"/>
+      <c r="E242" s="14"/>
+      <c r="F242" s="14"/>
+      <c r="G242" s="14"/>
+      <c r="H242" s="14"/>
+      <c r="I242" s="13"/>
+      <c r="J242" s="13"/>
     </row>
     <row r="243" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
@@ -9571,12 +9576,12 @@
       <c r="D243" s="3" t="s">
         <v>1255</v>
       </c>
-      <c r="E243" s="15"/>
-      <c r="F243" s="15"/>
-      <c r="G243" s="15"/>
-      <c r="H243" s="15"/>
-      <c r="I243" s="14"/>
-      <c r="J243" s="14"/>
+      <c r="E243" s="14"/>
+      <c r="F243" s="14"/>
+      <c r="G243" s="14"/>
+      <c r="H243" s="14"/>
+      <c r="I243" s="13"/>
+      <c r="J243" s="13"/>
     </row>
     <row r="244" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="4" t="s">
@@ -9591,12 +9596,12 @@
       <c r="D244" s="3" t="s">
         <v>1256</v>
       </c>
-      <c r="E244" s="15"/>
-      <c r="F244" s="15"/>
-      <c r="G244" s="15"/>
-      <c r="H244" s="15"/>
-      <c r="I244" s="14"/>
-      <c r="J244" s="14"/>
+      <c r="E244" s="14"/>
+      <c r="F244" s="14"/>
+      <c r="G244" s="14"/>
+      <c r="H244" s="14"/>
+      <c r="I244" s="13"/>
+      <c r="J244" s="13"/>
     </row>
     <row r="245" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="4" t="s">
@@ -9611,12 +9616,12 @@
       <c r="D245" s="3" t="s">
         <v>1257</v>
       </c>
-      <c r="E245" s="15"/>
-      <c r="F245" s="15"/>
-      <c r="G245" s="15"/>
-      <c r="H245" s="15"/>
-      <c r="I245" s="14"/>
-      <c r="J245" s="14"/>
+      <c r="E245" s="14"/>
+      <c r="F245" s="14"/>
+      <c r="G245" s="14"/>
+      <c r="H245" s="14"/>
+      <c r="I245" s="13"/>
+      <c r="J245" s="13"/>
     </row>
     <row r="246" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="4" t="s">
@@ -9631,12 +9636,12 @@
       <c r="D246" s="3" t="s">
         <v>1258</v>
       </c>
-      <c r="E246" s="15"/>
-      <c r="F246" s="15"/>
-      <c r="G246" s="15"/>
-      <c r="H246" s="15"/>
-      <c r="I246" s="14"/>
-      <c r="J246" s="14"/>
+      <c r="E246" s="14"/>
+      <c r="F246" s="14"/>
+      <c r="G246" s="14"/>
+      <c r="H246" s="14"/>
+      <c r="I246" s="13"/>
+      <c r="J246" s="13"/>
     </row>
     <row r="247" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="4" t="s">
@@ -9651,12 +9656,12 @@
       <c r="D247" s="3" t="s">
         <v>1259</v>
       </c>
-      <c r="E247" s="15"/>
-      <c r="F247" s="15"/>
-      <c r="G247" s="15"/>
-      <c r="H247" s="15"/>
-      <c r="I247" s="14"/>
-      <c r="J247" s="14"/>
+      <c r="E247" s="14"/>
+      <c r="F247" s="14"/>
+      <c r="G247" s="14"/>
+      <c r="H247" s="14"/>
+      <c r="I247" s="13"/>
+      <c r="J247" s="13"/>
     </row>
     <row r="248" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="4" t="s">
@@ -9671,12 +9676,12 @@
       <c r="D248" s="3" t="s">
         <v>1260</v>
       </c>
-      <c r="E248" s="15"/>
-      <c r="F248" s="15"/>
-      <c r="G248" s="15"/>
-      <c r="H248" s="15"/>
-      <c r="I248" s="14"/>
-      <c r="J248" s="14"/>
+      <c r="E248" s="14"/>
+      <c r="F248" s="14"/>
+      <c r="G248" s="14"/>
+      <c r="H248" s="14"/>
+      <c r="I248" s="13"/>
+      <c r="J248" s="13"/>
     </row>
     <row r="249" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="4" t="s">
@@ -9691,12 +9696,12 @@
       <c r="D249" s="3" t="s">
         <v>1261</v>
       </c>
-      <c r="E249" s="15"/>
-      <c r="F249" s="15"/>
-      <c r="G249" s="15"/>
-      <c r="H249" s="15"/>
-      <c r="I249" s="14"/>
-      <c r="J249" s="14"/>
+      <c r="E249" s="14"/>
+      <c r="F249" s="14"/>
+      <c r="G249" s="14"/>
+      <c r="H249" s="14"/>
+      <c r="I249" s="13"/>
+      <c r="J249" s="13"/>
     </row>
     <row r="250" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="4" t="s">
@@ -9711,15 +9716,15 @@
       <c r="D250" s="3" t="s">
         <v>1262</v>
       </c>
-      <c r="E250" s="15"/>
-      <c r="F250" s="15"/>
-      <c r="G250" s="15"/>
-      <c r="H250" s="15"/>
-      <c r="I250" s="14"/>
-      <c r="J250" s="14"/>
+      <c r="E250" s="14"/>
+      <c r="F250" s="14"/>
+      <c r="G250" s="14"/>
+      <c r="H250" s="14"/>
+      <c r="I250" s="13"/>
+      <c r="J250" s="13"/>
     </row>
     <row r="251" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="10" t="s">
+      <c r="A251" s="9" t="s">
         <v>871</v>
       </c>
       <c r="B251" s="3" t="s">
@@ -9731,12 +9736,12 @@
       <c r="D251" s="3" t="s">
         <v>1263</v>
       </c>
-      <c r="E251" s="15"/>
-      <c r="F251" s="15"/>
-      <c r="G251" s="15"/>
-      <c r="H251" s="15"/>
-      <c r="I251" s="14"/>
-      <c r="J251" s="14"/>
+      <c r="E251" s="14"/>
+      <c r="F251" s="14"/>
+      <c r="G251" s="14"/>
+      <c r="H251" s="14"/>
+      <c r="I251" s="13"/>
+      <c r="J251" s="13"/>
     </row>
     <row r="252" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
@@ -9751,12 +9756,12 @@
       <c r="D252" s="3" t="s">
         <v>1264</v>
       </c>
-      <c r="E252" s="15"/>
-      <c r="F252" s="15"/>
-      <c r="G252" s="15"/>
-      <c r="H252" s="15"/>
-      <c r="I252" s="14"/>
-      <c r="J252" s="14"/>
+      <c r="E252" s="14"/>
+      <c r="F252" s="14"/>
+      <c r="G252" s="14"/>
+      <c r="H252" s="14"/>
+      <c r="I252" s="13"/>
+      <c r="J252" s="13"/>
     </row>
     <row r="253" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="4" t="s">
@@ -9771,12 +9776,12 @@
       <c r="D253" s="3" t="s">
         <v>1265</v>
       </c>
-      <c r="E253" s="15"/>
-      <c r="F253" s="15"/>
-      <c r="G253" s="15"/>
-      <c r="H253" s="15"/>
-      <c r="I253" s="14"/>
-      <c r="J253" s="14"/>
+      <c r="E253" s="14"/>
+      <c r="F253" s="14"/>
+      <c r="G253" s="14"/>
+      <c r="H253" s="14"/>
+      <c r="I253" s="13"/>
+      <c r="J253" s="13"/>
     </row>
     <row r="254" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="4" t="s">
@@ -9791,12 +9796,12 @@
       <c r="D254" s="3" t="s">
         <v>1266</v>
       </c>
-      <c r="E254" s="15"/>
-      <c r="F254" s="15"/>
-      <c r="G254" s="15"/>
-      <c r="H254" s="15"/>
-      <c r="I254" s="14"/>
-      <c r="J254" s="14"/>
+      <c r="E254" s="14"/>
+      <c r="F254" s="14"/>
+      <c r="G254" s="14"/>
+      <c r="H254" s="14"/>
+      <c r="I254" s="13"/>
+      <c r="J254" s="13"/>
     </row>
     <row r="255" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="4" t="s">
@@ -9811,12 +9816,12 @@
       <c r="D255" s="3" t="s">
         <v>1267</v>
       </c>
-      <c r="E255" s="15"/>
-      <c r="F255" s="15"/>
-      <c r="G255" s="15"/>
-      <c r="H255" s="15"/>
-      <c r="I255" s="14"/>
-      <c r="J255" s="14"/>
+      <c r="E255" s="14"/>
+      <c r="F255" s="14"/>
+      <c r="G255" s="14"/>
+      <c r="H255" s="14"/>
+      <c r="I255" s="13"/>
+      <c r="J255" s="13"/>
     </row>
     <row r="256" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="s">
@@ -9831,15 +9836,15 @@
       <c r="D256" s="3" t="s">
         <v>1268</v>
       </c>
-      <c r="E256" s="15"/>
-      <c r="F256" s="15"/>
-      <c r="G256" s="15"/>
-      <c r="H256" s="15"/>
-      <c r="I256" s="14"/>
-      <c r="J256" s="14"/>
+      <c r="E256" s="14"/>
+      <c r="F256" s="14"/>
+      <c r="G256" s="14"/>
+      <c r="H256" s="14"/>
+      <c r="I256" s="13"/>
+      <c r="J256" s="13"/>
     </row>
     <row r="257" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="10" t="s">
+      <c r="A257" s="9" t="s">
         <v>946</v>
       </c>
       <c r="B257" s="3" t="s">
@@ -9851,15 +9856,15 @@
       <c r="D257" s="3" t="s">
         <v>1269</v>
       </c>
-      <c r="E257" s="15"/>
-      <c r="F257" s="15"/>
-      <c r="G257" s="15"/>
-      <c r="H257" s="15"/>
-      <c r="I257" s="14"/>
-      <c r="J257" s="14"/>
+      <c r="E257" s="14"/>
+      <c r="F257" s="14"/>
+      <c r="G257" s="14"/>
+      <c r="H257" s="14"/>
+      <c r="I257" s="13"/>
+      <c r="J257" s="13"/>
     </row>
     <row r="258" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="10" t="s">
+      <c r="A258" s="9" t="s">
         <v>945</v>
       </c>
       <c r="B258" s="3" t="s">
@@ -9871,12 +9876,12 @@
       <c r="D258" s="3" t="s">
         <v>1270</v>
       </c>
-      <c r="E258" s="15"/>
-      <c r="F258" s="15"/>
-      <c r="G258" s="15"/>
-      <c r="H258" s="15"/>
-      <c r="I258" s="14"/>
-      <c r="J258" s="14"/>
+      <c r="E258" s="14"/>
+      <c r="F258" s="14"/>
+      <c r="G258" s="14"/>
+      <c r="H258" s="14"/>
+      <c r="I258" s="13"/>
+      <c r="J258" s="13"/>
     </row>
     <row r="259" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="4" t="s">
@@ -9891,12 +9896,12 @@
       <c r="D259" s="3" t="s">
         <v>1271</v>
       </c>
-      <c r="E259" s="15"/>
-      <c r="F259" s="15"/>
-      <c r="G259" s="15"/>
-      <c r="H259" s="15"/>
-      <c r="I259" s="14"/>
-      <c r="J259" s="14"/>
+      <c r="E259" s="14"/>
+      <c r="F259" s="14"/>
+      <c r="G259" s="14"/>
+      <c r="H259" s="14"/>
+      <c r="I259" s="13"/>
+      <c r="J259" s="13"/>
     </row>
     <row r="260" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="4" t="s">
@@ -9911,12 +9916,12 @@
       <c r="D260" s="3" t="s">
         <v>1272</v>
       </c>
-      <c r="E260" s="15"/>
-      <c r="F260" s="15"/>
-      <c r="G260" s="15"/>
-      <c r="H260" s="15"/>
-      <c r="I260" s="14"/>
-      <c r="J260" s="14"/>
+      <c r="E260" s="14"/>
+      <c r="F260" s="14"/>
+      <c r="G260" s="14"/>
+      <c r="H260" s="14"/>
+      <c r="I260" s="13"/>
+      <c r="J260" s="13"/>
     </row>
     <row r="261" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="4" t="s">
@@ -9931,12 +9936,12 @@
       <c r="D261" s="3" t="s">
         <v>1273</v>
       </c>
-      <c r="E261" s="15"/>
-      <c r="F261" s="15"/>
-      <c r="G261" s="15"/>
-      <c r="H261" s="15"/>
-      <c r="I261" s="14"/>
-      <c r="J261" s="14"/>
+      <c r="E261" s="14"/>
+      <c r="F261" s="14"/>
+      <c r="G261" s="14"/>
+      <c r="H261" s="14"/>
+      <c r="I261" s="13"/>
+      <c r="J261" s="13"/>
     </row>
     <row r="262" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="4" t="s">
@@ -9951,15 +9956,15 @@
       <c r="D262" s="3" t="s">
         <v>1274</v>
       </c>
-      <c r="E262" s="15"/>
-      <c r="F262" s="15"/>
-      <c r="G262" s="15"/>
-      <c r="H262" s="15"/>
-      <c r="I262" s="14"/>
-      <c r="J262" s="14"/>
+      <c r="E262" s="14"/>
+      <c r="F262" s="14"/>
+      <c r="G262" s="14"/>
+      <c r="H262" s="14"/>
+      <c r="I262" s="13"/>
+      <c r="J262" s="13"/>
     </row>
     <row r="263" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="10" t="s">
+      <c r="A263" s="9" t="s">
         <v>904</v>
       </c>
       <c r="B263" s="3" t="s">
@@ -9971,15 +9976,15 @@
       <c r="D263" s="3" t="s">
         <v>1275</v>
       </c>
-      <c r="E263" s="15"/>
-      <c r="F263" s="15"/>
-      <c r="G263" s="15"/>
-      <c r="H263" s="15"/>
-      <c r="I263" s="14"/>
-      <c r="J263" s="14"/>
+      <c r="E263" s="14"/>
+      <c r="F263" s="14"/>
+      <c r="G263" s="14"/>
+      <c r="H263" s="14"/>
+      <c r="I263" s="13"/>
+      <c r="J263" s="13"/>
     </row>
     <row r="264" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="10" t="s">
+      <c r="A264" s="9" t="s">
         <v>905</v>
       </c>
       <c r="B264" s="3" t="s">
@@ -9991,12 +9996,12 @@
       <c r="D264" s="3" t="s">
         <v>1276</v>
       </c>
-      <c r="E264" s="15"/>
-      <c r="F264" s="15"/>
-      <c r="G264" s="15"/>
-      <c r="H264" s="15"/>
-      <c r="I264" s="14"/>
-      <c r="J264" s="14"/>
+      <c r="E264" s="14"/>
+      <c r="F264" s="14"/>
+      <c r="G264" s="14"/>
+      <c r="H264" s="14"/>
+      <c r="I264" s="13"/>
+      <c r="J264" s="13"/>
     </row>
     <row r="265" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="4" t="s">
@@ -10011,12 +10016,12 @@
       <c r="D265" s="3" t="s">
         <v>1277</v>
       </c>
-      <c r="E265" s="15"/>
-      <c r="F265" s="15"/>
-      <c r="G265" s="15"/>
-      <c r="H265" s="15"/>
-      <c r="I265" s="14"/>
-      <c r="J265" s="14"/>
+      <c r="E265" s="14"/>
+      <c r="F265" s="14"/>
+      <c r="G265" s="14"/>
+      <c r="H265" s="14"/>
+      <c r="I265" s="13"/>
+      <c r="J265" s="13"/>
     </row>
     <row r="266" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="4" t="s">
@@ -10031,12 +10036,12 @@
       <c r="D266" s="3" t="s">
         <v>1278</v>
       </c>
-      <c r="E266" s="15"/>
-      <c r="F266" s="15"/>
-      <c r="G266" s="15"/>
-      <c r="H266" s="15"/>
-      <c r="I266" s="14"/>
-      <c r="J266" s="14"/>
+      <c r="E266" s="14"/>
+      <c r="F266" s="14"/>
+      <c r="G266" s="14"/>
+      <c r="H266" s="14"/>
+      <c r="I266" s="13"/>
+      <c r="J266" s="13"/>
     </row>
     <row r="267" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="4" t="s">
@@ -10051,12 +10056,12 @@
       <c r="D267" s="3" t="s">
         <v>1279</v>
       </c>
-      <c r="E267" s="15"/>
-      <c r="F267" s="15"/>
-      <c r="G267" s="15"/>
-      <c r="H267" s="15"/>
-      <c r="I267" s="14"/>
-      <c r="J267" s="14"/>
+      <c r="E267" s="14"/>
+      <c r="F267" s="14"/>
+      <c r="G267" s="14"/>
+      <c r="H267" s="14"/>
+      <c r="I267" s="13"/>
+      <c r="J267" s="13"/>
     </row>
     <row r="268" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="4" t="s">
@@ -10071,12 +10076,12 @@
       <c r="D268" s="3" t="s">
         <v>1280</v>
       </c>
-      <c r="E268" s="15"/>
-      <c r="F268" s="15"/>
-      <c r="G268" s="15"/>
-      <c r="H268" s="15"/>
-      <c r="I268" s="14"/>
-      <c r="J268" s="14"/>
+      <c r="E268" s="14"/>
+      <c r="F268" s="14"/>
+      <c r="G268" s="14"/>
+      <c r="H268" s="14"/>
+      <c r="I268" s="13"/>
+      <c r="J268" s="13"/>
     </row>
     <row r="269" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="4" t="s">
@@ -10091,12 +10096,12 @@
       <c r="D269" s="3" t="s">
         <v>1281</v>
       </c>
-      <c r="E269" s="15"/>
-      <c r="F269" s="15"/>
-      <c r="G269" s="15"/>
-      <c r="H269" s="15"/>
-      <c r="I269" s="14"/>
-      <c r="J269" s="14"/>
+      <c r="E269" s="14"/>
+      <c r="F269" s="14"/>
+      <c r="G269" s="14"/>
+      <c r="H269" s="14"/>
+      <c r="I269" s="13"/>
+      <c r="J269" s="13"/>
     </row>
     <row r="270" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="4" t="s">
@@ -10111,12 +10116,12 @@
       <c r="D270" s="3" t="s">
         <v>1282</v>
       </c>
-      <c r="E270" s="15"/>
-      <c r="F270" s="15"/>
-      <c r="G270" s="15"/>
-      <c r="H270" s="15"/>
-      <c r="I270" s="14"/>
-      <c r="J270" s="14"/>
+      <c r="E270" s="14"/>
+      <c r="F270" s="14"/>
+      <c r="G270" s="14"/>
+      <c r="H270" s="14"/>
+      <c r="I270" s="13"/>
+      <c r="J270" s="13"/>
     </row>
     <row r="271" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="4" t="s">
@@ -10131,12 +10136,12 @@
       <c r="D271" s="3" t="s">
         <v>1283</v>
       </c>
-      <c r="E271" s="15"/>
-      <c r="F271" s="15"/>
-      <c r="G271" s="15"/>
-      <c r="H271" s="15"/>
-      <c r="I271" s="14"/>
-      <c r="J271" s="14"/>
+      <c r="E271" s="14"/>
+      <c r="F271" s="14"/>
+      <c r="G271" s="14"/>
+      <c r="H271" s="14"/>
+      <c r="I271" s="13"/>
+      <c r="J271" s="13"/>
     </row>
     <row r="272" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="4" t="s">
@@ -10151,12 +10156,12 @@
       <c r="D272" s="3" t="s">
         <v>1284</v>
       </c>
-      <c r="E272" s="15"/>
-      <c r="F272" s="15"/>
-      <c r="G272" s="15"/>
-      <c r="H272" s="15"/>
-      <c r="I272" s="14"/>
-      <c r="J272" s="14"/>
+      <c r="E272" s="14"/>
+      <c r="F272" s="14"/>
+      <c r="G272" s="14"/>
+      <c r="H272" s="14"/>
+      <c r="I272" s="13"/>
+      <c r="J272" s="13"/>
     </row>
     <row r="273" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="4" t="s">
@@ -10171,12 +10176,12 @@
       <c r="D273" s="3" t="s">
         <v>1285</v>
       </c>
-      <c r="E273" s="15"/>
-      <c r="F273" s="15"/>
-      <c r="G273" s="15"/>
-      <c r="H273" s="15"/>
-      <c r="I273" s="14"/>
-      <c r="J273" s="14"/>
+      <c r="E273" s="14"/>
+      <c r="F273" s="14"/>
+      <c r="G273" s="14"/>
+      <c r="H273" s="14"/>
+      <c r="I273" s="13"/>
+      <c r="J273" s="13"/>
     </row>
     <row r="274" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="4" t="s">
@@ -10191,12 +10196,12 @@
       <c r="D274" s="3" t="s">
         <v>1286</v>
       </c>
-      <c r="E274" s="15"/>
-      <c r="F274" s="15"/>
-      <c r="G274" s="15"/>
-      <c r="H274" s="15"/>
-      <c r="I274" s="14"/>
-      <c r="J274" s="14"/>
+      <c r="E274" s="14"/>
+      <c r="F274" s="14"/>
+      <c r="G274" s="14"/>
+      <c r="H274" s="14"/>
+      <c r="I274" s="13"/>
+      <c r="J274" s="13"/>
     </row>
     <row r="275" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="4" t="s">
@@ -10211,12 +10216,12 @@
       <c r="D275" s="3" t="s">
         <v>1287</v>
       </c>
-      <c r="E275" s="15"/>
-      <c r="F275" s="15"/>
-      <c r="G275" s="15"/>
-      <c r="H275" s="15"/>
-      <c r="I275" s="14"/>
-      <c r="J275" s="14"/>
+      <c r="E275" s="14"/>
+      <c r="F275" s="14"/>
+      <c r="G275" s="14"/>
+      <c r="H275" s="14"/>
+      <c r="I275" s="13"/>
+      <c r="J275" s="13"/>
     </row>
     <row r="276" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="4" t="s">
@@ -10231,12 +10236,12 @@
       <c r="D276" s="3" t="s">
         <v>1288</v>
       </c>
-      <c r="E276" s="15"/>
-      <c r="F276" s="15"/>
-      <c r="G276" s="15"/>
-      <c r="H276" s="15"/>
-      <c r="I276" s="14"/>
-      <c r="J276" s="14"/>
+      <c r="E276" s="14"/>
+      <c r="F276" s="14"/>
+      <c r="G276" s="14"/>
+      <c r="H276" s="14"/>
+      <c r="I276" s="13"/>
+      <c r="J276" s="13"/>
     </row>
     <row r="277" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="4" t="s">
@@ -10251,12 +10256,12 @@
       <c r="D277" s="3" t="s">
         <v>1289</v>
       </c>
-      <c r="E277" s="15"/>
-      <c r="F277" s="15"/>
-      <c r="G277" s="15"/>
-      <c r="H277" s="15"/>
-      <c r="I277" s="14"/>
-      <c r="J277" s="14"/>
+      <c r="E277" s="14"/>
+      <c r="F277" s="14"/>
+      <c r="G277" s="14"/>
+      <c r="H277" s="14"/>
+      <c r="I277" s="13"/>
+      <c r="J277" s="13"/>
     </row>
     <row r="278" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="4" t="s">
@@ -10271,15 +10276,15 @@
       <c r="D278" s="3" t="s">
         <v>1290</v>
       </c>
-      <c r="E278" s="15"/>
-      <c r="F278" s="15"/>
-      <c r="G278" s="15"/>
-      <c r="H278" s="15"/>
-      <c r="I278" s="14"/>
-      <c r="J278" s="14"/>
+      <c r="E278" s="14"/>
+      <c r="F278" s="14"/>
+      <c r="G278" s="14"/>
+      <c r="H278" s="14"/>
+      <c r="I278" s="13"/>
+      <c r="J278" s="13"/>
     </row>
     <row r="279" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A279" s="10" t="s">
+      <c r="A279" s="9" t="s">
         <v>1008</v>
       </c>
       <c r="B279" s="3" t="s">
@@ -10291,12 +10296,12 @@
       <c r="D279" s="3" t="s">
         <v>1291</v>
       </c>
-      <c r="E279" s="15"/>
-      <c r="F279" s="15"/>
-      <c r="G279" s="15"/>
-      <c r="H279" s="15"/>
-      <c r="I279" s="14"/>
-      <c r="J279" s="14"/>
+      <c r="E279" s="14"/>
+      <c r="F279" s="14"/>
+      <c r="G279" s="14"/>
+      <c r="H279" s="14"/>
+      <c r="I279" s="13"/>
+      <c r="J279" s="13"/>
     </row>
     <row r="280" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="4" t="s">
@@ -10311,12 +10316,12 @@
       <c r="D280" s="3" t="s">
         <v>1292</v>
       </c>
-      <c r="E280" s="15"/>
-      <c r="F280" s="15"/>
-      <c r="G280" s="15"/>
-      <c r="H280" s="15"/>
-      <c r="I280" s="14"/>
-      <c r="J280" s="14"/>
+      <c r="E280" s="14"/>
+      <c r="F280" s="14"/>
+      <c r="G280" s="14"/>
+      <c r="H280" s="14"/>
+      <c r="I280" s="13"/>
+      <c r="J280" s="13"/>
     </row>
     <row r="281" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="4" t="s">
@@ -10331,12 +10336,12 @@
       <c r="D281" s="3" t="s">
         <v>1293</v>
       </c>
-      <c r="E281" s="15"/>
-      <c r="F281" s="15"/>
-      <c r="G281" s="15"/>
-      <c r="H281" s="15"/>
-      <c r="I281" s="14"/>
-      <c r="J281" s="14"/>
+      <c r="E281" s="14"/>
+      <c r="F281" s="14"/>
+      <c r="G281" s="14"/>
+      <c r="H281" s="14"/>
+      <c r="I281" s="13"/>
+      <c r="J281" s="13"/>
     </row>
     <row r="282" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="4" t="s">
@@ -10351,12 +10356,12 @@
       <c r="D282" s="3" t="s">
         <v>1293</v>
       </c>
-      <c r="E282" s="15"/>
-      <c r="F282" s="15"/>
-      <c r="G282" s="15"/>
-      <c r="H282" s="15"/>
-      <c r="I282" s="14"/>
-      <c r="J282" s="14"/>
+      <c r="E282" s="14"/>
+      <c r="F282" s="14"/>
+      <c r="G282" s="14"/>
+      <c r="H282" s="14"/>
+      <c r="I282" s="13"/>
+      <c r="J282" s="13"/>
     </row>
     <row r="283" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="4" t="s">
@@ -10371,12 +10376,12 @@
       <c r="D283" s="3" t="s">
         <v>1294</v>
       </c>
-      <c r="E283" s="15"/>
-      <c r="F283" s="15"/>
-      <c r="G283" s="15"/>
-      <c r="H283" s="15"/>
-      <c r="I283" s="14"/>
-      <c r="J283" s="14"/>
+      <c r="E283" s="14"/>
+      <c r="F283" s="14"/>
+      <c r="G283" s="14"/>
+      <c r="H283" s="14"/>
+      <c r="I283" s="13"/>
+      <c r="J283" s="13"/>
     </row>
     <row r="284" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="4" t="s">
@@ -10391,12 +10396,12 @@
       <c r="D284" s="3" t="s">
         <v>1295</v>
       </c>
-      <c r="E284" s="15"/>
-      <c r="F284" s="15"/>
-      <c r="G284" s="15"/>
-      <c r="H284" s="15"/>
-      <c r="I284" s="14"/>
-      <c r="J284" s="14"/>
+      <c r="E284" s="14"/>
+      <c r="F284" s="14"/>
+      <c r="G284" s="14"/>
+      <c r="H284" s="14"/>
+      <c r="I284" s="13"/>
+      <c r="J284" s="13"/>
     </row>
     <row r="285" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="4" t="s">
@@ -10411,12 +10416,12 @@
       <c r="D285" s="3" t="s">
         <v>1296</v>
       </c>
-      <c r="E285" s="15"/>
-      <c r="F285" s="15"/>
-      <c r="G285" s="15"/>
-      <c r="H285" s="15"/>
-      <c r="I285" s="14"/>
-      <c r="J285" s="14"/>
+      <c r="E285" s="14"/>
+      <c r="F285" s="14"/>
+      <c r="G285" s="14"/>
+      <c r="H285" s="14"/>
+      <c r="I285" s="13"/>
+      <c r="J285" s="13"/>
     </row>
     <row r="286" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="4" t="s">
@@ -10431,15 +10436,15 @@
       <c r="D286" s="3" t="s">
         <v>1297</v>
       </c>
-      <c r="E286" s="15"/>
-      <c r="F286" s="15"/>
-      <c r="G286" s="15"/>
-      <c r="H286" s="15"/>
-      <c r="I286" s="14"/>
-      <c r="J286" s="14"/>
+      <c r="E286" s="14"/>
+      <c r="F286" s="14"/>
+      <c r="G286" s="14"/>
+      <c r="H286" s="14"/>
+      <c r="I286" s="13"/>
+      <c r="J286" s="13"/>
     </row>
     <row r="287" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A287" s="10" t="s">
+      <c r="A287" s="9" t="s">
         <v>929</v>
       </c>
       <c r="B287" s="3" t="s">
@@ -10451,15 +10456,15 @@
       <c r="D287" s="3" t="s">
         <v>1298</v>
       </c>
-      <c r="E287" s="15"/>
-      <c r="F287" s="15"/>
-      <c r="G287" s="15"/>
-      <c r="H287" s="15"/>
-      <c r="I287" s="14"/>
-      <c r="J287" s="14"/>
+      <c r="E287" s="14"/>
+      <c r="F287" s="14"/>
+      <c r="G287" s="14"/>
+      <c r="H287" s="14"/>
+      <c r="I287" s="13"/>
+      <c r="J287" s="13"/>
     </row>
     <row r="288" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A288" s="10" t="s">
+      <c r="A288" s="9" t="s">
         <v>927</v>
       </c>
       <c r="B288" s="3" t="s">
@@ -10471,12 +10476,12 @@
       <c r="D288" s="3" t="s">
         <v>1299</v>
       </c>
-      <c r="E288" s="15"/>
-      <c r="F288" s="15"/>
-      <c r="G288" s="15"/>
-      <c r="H288" s="15"/>
-      <c r="I288" s="14"/>
-      <c r="J288" s="14"/>
+      <c r="E288" s="14"/>
+      <c r="F288" s="14"/>
+      <c r="G288" s="14"/>
+      <c r="H288" s="14"/>
+      <c r="I288" s="13"/>
+      <c r="J288" s="13"/>
     </row>
     <row r="289" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="4" t="s">
@@ -10491,12 +10496,12 @@
       <c r="D289" s="3" t="s">
         <v>1300</v>
       </c>
-      <c r="E289" s="15"/>
-      <c r="F289" s="15"/>
-      <c r="G289" s="15"/>
-      <c r="H289" s="15"/>
-      <c r="I289" s="14"/>
-      <c r="J289" s="14"/>
+      <c r="E289" s="14"/>
+      <c r="F289" s="14"/>
+      <c r="G289" s="14"/>
+      <c r="H289" s="14"/>
+      <c r="I289" s="13"/>
+      <c r="J289" s="13"/>
     </row>
     <row r="290" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="4" t="s">
@@ -10511,15 +10516,15 @@
       <c r="D290" s="3" t="s">
         <v>1301</v>
       </c>
-      <c r="E290" s="15"/>
-      <c r="F290" s="15"/>
-      <c r="G290" s="15"/>
-      <c r="H290" s="15"/>
-      <c r="I290" s="14"/>
-      <c r="J290" s="14"/>
+      <c r="E290" s="14"/>
+      <c r="F290" s="14"/>
+      <c r="G290" s="14"/>
+      <c r="H290" s="14"/>
+      <c r="I290" s="13"/>
+      <c r="J290" s="13"/>
     </row>
     <row r="291" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A291" s="10" t="s">
+      <c r="A291" s="9" t="s">
         <v>938</v>
       </c>
       <c r="B291" s="3" t="s">
@@ -10531,12 +10536,12 @@
       <c r="D291" s="3" t="s">
         <v>1302</v>
       </c>
-      <c r="E291" s="15"/>
-      <c r="F291" s="15"/>
-      <c r="G291" s="15"/>
-      <c r="H291" s="15"/>
-      <c r="I291" s="14"/>
-      <c r="J291" s="14"/>
+      <c r="E291" s="14"/>
+      <c r="F291" s="14"/>
+      <c r="G291" s="14"/>
+      <c r="H291" s="14"/>
+      <c r="I291" s="13"/>
+      <c r="J291" s="13"/>
     </row>
     <row r="292" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="4" t="s">
@@ -10551,12 +10556,12 @@
       <c r="D292" s="3" t="s">
         <v>1303</v>
       </c>
-      <c r="E292" s="15"/>
-      <c r="F292" s="15"/>
-      <c r="G292" s="15"/>
-      <c r="H292" s="15"/>
-      <c r="I292" s="14"/>
-      <c r="J292" s="14"/>
+      <c r="E292" s="14"/>
+      <c r="F292" s="14"/>
+      <c r="G292" s="14"/>
+      <c r="H292" s="14"/>
+      <c r="I292" s="13"/>
+      <c r="J292" s="13"/>
     </row>
     <row r="293" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="4" t="s">
@@ -10571,12 +10576,12 @@
       <c r="D293" s="3" t="s">
         <v>1304</v>
       </c>
-      <c r="E293" s="15"/>
-      <c r="F293" s="15"/>
-      <c r="G293" s="15"/>
-      <c r="H293" s="15"/>
-      <c r="I293" s="14"/>
-      <c r="J293" s="14"/>
+      <c r="E293" s="14"/>
+      <c r="F293" s="14"/>
+      <c r="G293" s="14"/>
+      <c r="H293" s="14"/>
+      <c r="I293" s="13"/>
+      <c r="J293" s="13"/>
     </row>
     <row r="294" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="4" t="s">
@@ -10591,12 +10596,12 @@
       <c r="D294" s="3" t="s">
         <v>1305</v>
       </c>
-      <c r="E294" s="15"/>
-      <c r="F294" s="15"/>
-      <c r="G294" s="15"/>
-      <c r="H294" s="15"/>
-      <c r="I294" s="14"/>
-      <c r="J294" s="14"/>
+      <c r="E294" s="14"/>
+      <c r="F294" s="14"/>
+      <c r="G294" s="14"/>
+      <c r="H294" s="14"/>
+      <c r="I294" s="13"/>
+      <c r="J294" s="13"/>
     </row>
     <row r="295" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="4" t="s">
@@ -10611,12 +10616,12 @@
       <c r="D295" s="3" t="s">
         <v>1306</v>
       </c>
-      <c r="E295" s="15"/>
-      <c r="F295" s="15"/>
-      <c r="G295" s="15"/>
-      <c r="H295" s="15"/>
-      <c r="I295" s="14"/>
-      <c r="J295" s="14"/>
+      <c r="E295" s="14"/>
+      <c r="F295" s="14"/>
+      <c r="G295" s="14"/>
+      <c r="H295" s="14"/>
+      <c r="I295" s="13"/>
+      <c r="J295" s="13"/>
     </row>
     <row r="296" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="4" t="s">
@@ -10631,12 +10636,12 @@
       <c r="D296" s="3" t="s">
         <v>1307</v>
       </c>
-      <c r="E296" s="15"/>
-      <c r="F296" s="15"/>
-      <c r="G296" s="15"/>
-      <c r="H296" s="15"/>
-      <c r="I296" s="14"/>
-      <c r="J296" s="14"/>
+      <c r="E296" s="14"/>
+      <c r="F296" s="14"/>
+      <c r="G296" s="14"/>
+      <c r="H296" s="14"/>
+      <c r="I296" s="13"/>
+      <c r="J296" s="13"/>
     </row>
     <row r="297" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="4" t="s">
@@ -10651,15 +10656,15 @@
       <c r="D297" s="3" t="s">
         <v>1308</v>
       </c>
-      <c r="E297" s="15"/>
-      <c r="F297" s="15"/>
-      <c r="G297" s="15"/>
-      <c r="H297" s="15"/>
-      <c r="I297" s="14"/>
-      <c r="J297" s="14"/>
+      <c r="E297" s="14"/>
+      <c r="F297" s="14"/>
+      <c r="G297" s="14"/>
+      <c r="H297" s="14"/>
+      <c r="I297" s="13"/>
+      <c r="J297" s="13"/>
     </row>
     <row r="298" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A298" s="10" t="s">
+      <c r="A298" s="9" t="s">
         <v>922</v>
       </c>
       <c r="B298" s="3" t="s">
@@ -10671,15 +10676,15 @@
       <c r="D298" s="3" t="s">
         <v>1309</v>
       </c>
-      <c r="E298" s="15"/>
-      <c r="F298" s="15"/>
-      <c r="G298" s="15"/>
-      <c r="H298" s="15"/>
-      <c r="I298" s="14"/>
-      <c r="J298" s="14"/>
+      <c r="E298" s="14"/>
+      <c r="F298" s="14"/>
+      <c r="G298" s="14"/>
+      <c r="H298" s="14"/>
+      <c r="I298" s="13"/>
+      <c r="J298" s="13"/>
     </row>
     <row r="299" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A299" s="10" t="s">
+      <c r="A299" s="9" t="s">
         <v>900</v>
       </c>
       <c r="B299" s="3" t="s">
@@ -10691,12 +10696,12 @@
       <c r="D299" s="3" t="s">
         <v>1310</v>
       </c>
-      <c r="E299" s="15"/>
-      <c r="F299" s="15"/>
-      <c r="G299" s="15"/>
-      <c r="H299" s="15"/>
-      <c r="I299" s="14"/>
-      <c r="J299" s="14"/>
+      <c r="E299" s="14"/>
+      <c r="F299" s="14"/>
+      <c r="G299" s="14"/>
+      <c r="H299" s="14"/>
+      <c r="I299" s="13"/>
+      <c r="J299" s="13"/>
     </row>
     <row r="300" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="4" t="s">
@@ -10711,12 +10716,12 @@
       <c r="D300" s="3" t="s">
         <v>1311</v>
       </c>
-      <c r="E300" s="15"/>
-      <c r="F300" s="15"/>
-      <c r="G300" s="15"/>
-      <c r="H300" s="15"/>
-      <c r="I300" s="14"/>
-      <c r="J300" s="14"/>
+      <c r="E300" s="14"/>
+      <c r="F300" s="14"/>
+      <c r="G300" s="14"/>
+      <c r="H300" s="14"/>
+      <c r="I300" s="13"/>
+      <c r="J300" s="13"/>
     </row>
     <row r="301" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="4" t="s">
@@ -10731,12 +10736,12 @@
       <c r="D301" s="3" t="s">
         <v>1312</v>
       </c>
-      <c r="E301" s="15"/>
-      <c r="F301" s="15"/>
-      <c r="G301" s="15"/>
-      <c r="H301" s="15"/>
-      <c r="I301" s="14"/>
-      <c r="J301" s="14"/>
+      <c r="E301" s="14"/>
+      <c r="F301" s="14"/>
+      <c r="G301" s="14"/>
+      <c r="H301" s="14"/>
+      <c r="I301" s="13"/>
+      <c r="J301" s="13"/>
     </row>
     <row r="302" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="4" t="s">
@@ -10751,12 +10756,12 @@
       <c r="D302" s="3" t="s">
         <v>1313</v>
       </c>
-      <c r="E302" s="15"/>
-      <c r="F302" s="15"/>
-      <c r="G302" s="15"/>
-      <c r="H302" s="15"/>
-      <c r="I302" s="14"/>
-      <c r="J302" s="14"/>
+      <c r="E302" s="14"/>
+      <c r="F302" s="14"/>
+      <c r="G302" s="14"/>
+      <c r="H302" s="14"/>
+      <c r="I302" s="13"/>
+      <c r="J302" s="13"/>
     </row>
     <row r="303" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="4" t="s">
@@ -10771,12 +10776,12 @@
       <c r="D303" s="3" t="s">
         <v>1314</v>
       </c>
-      <c r="E303" s="15"/>
-      <c r="F303" s="15"/>
-      <c r="G303" s="15"/>
-      <c r="H303" s="15"/>
-      <c r="I303" s="14"/>
-      <c r="J303" s="14"/>
+      <c r="E303" s="14"/>
+      <c r="F303" s="14"/>
+      <c r="G303" s="14"/>
+      <c r="H303" s="14"/>
+      <c r="I303" s="13"/>
+      <c r="J303" s="13"/>
     </row>
     <row r="304" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="4" t="s">
@@ -10791,15 +10796,15 @@
       <c r="D304" s="3" t="s">
         <v>1315</v>
       </c>
-      <c r="E304" s="15"/>
-      <c r="F304" s="15"/>
-      <c r="G304" s="15"/>
-      <c r="H304" s="15"/>
-      <c r="I304" s="14"/>
-      <c r="J304" s="14"/>
+      <c r="E304" s="14"/>
+      <c r="F304" s="14"/>
+      <c r="G304" s="14"/>
+      <c r="H304" s="14"/>
+      <c r="I304" s="13"/>
+      <c r="J304" s="13"/>
     </row>
     <row r="305" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A305" s="10" t="s">
+      <c r="A305" s="9" t="s">
         <v>926</v>
       </c>
       <c r="B305" s="3" t="s">
@@ -10811,15 +10816,15 @@
       <c r="D305" s="3" t="s">
         <v>1316</v>
       </c>
-      <c r="E305" s="15"/>
-      <c r="F305" s="15"/>
-      <c r="G305" s="15"/>
-      <c r="H305" s="15"/>
-      <c r="I305" s="14"/>
-      <c r="J305" s="14"/>
+      <c r="E305" s="14"/>
+      <c r="F305" s="14"/>
+      <c r="G305" s="14"/>
+      <c r="H305" s="14"/>
+      <c r="I305" s="13"/>
+      <c r="J305" s="13"/>
     </row>
     <row r="306" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A306" s="10" t="s">
+      <c r="A306" s="9" t="s">
         <v>894</v>
       </c>
       <c r="B306" s="3" t="s">
@@ -10831,12 +10836,12 @@
       <c r="D306" s="3" t="s">
         <v>1317</v>
       </c>
-      <c r="E306" s="15"/>
-      <c r="F306" s="15"/>
-      <c r="G306" s="15"/>
-      <c r="H306" s="15"/>
-      <c r="I306" s="14"/>
-      <c r="J306" s="14"/>
+      <c r="E306" s="14"/>
+      <c r="F306" s="14"/>
+      <c r="G306" s="14"/>
+      <c r="H306" s="14"/>
+      <c r="I306" s="13"/>
+      <c r="J306" s="13"/>
     </row>
     <row r="307" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="4" t="s">
@@ -10851,15 +10856,15 @@
       <c r="D307" s="3" t="s">
         <v>1318</v>
       </c>
-      <c r="E307" s="15"/>
-      <c r="F307" s="15"/>
-      <c r="G307" s="15"/>
-      <c r="H307" s="15"/>
-      <c r="I307" s="14"/>
-      <c r="J307" s="14"/>
+      <c r="E307" s="14"/>
+      <c r="F307" s="14"/>
+      <c r="G307" s="14"/>
+      <c r="H307" s="14"/>
+      <c r="I307" s="13"/>
+      <c r="J307" s="13"/>
     </row>
     <row r="308" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A308" s="10" t="s">
+      <c r="A308" s="9" t="s">
         <v>909</v>
       </c>
       <c r="B308" s="3" t="s">
@@ -10871,15 +10876,15 @@
       <c r="D308" s="3" t="s">
         <v>1319</v>
       </c>
-      <c r="E308" s="15"/>
-      <c r="F308" s="15"/>
-      <c r="G308" s="15"/>
-      <c r="H308" s="15"/>
-      <c r="I308" s="14"/>
-      <c r="J308" s="14"/>
+      <c r="E308" s="14"/>
+      <c r="F308" s="14"/>
+      <c r="G308" s="14"/>
+      <c r="H308" s="14"/>
+      <c r="I308" s="13"/>
+      <c r="J308" s="13"/>
     </row>
     <row r="309" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A309" s="10" t="s">
+      <c r="A309" s="9" t="s">
         <v>885</v>
       </c>
       <c r="B309" s="3" t="s">
@@ -10891,12 +10896,12 @@
       <c r="D309" s="3" t="s">
         <v>1320</v>
       </c>
-      <c r="E309" s="15"/>
-      <c r="F309" s="15"/>
-      <c r="G309" s="15"/>
-      <c r="H309" s="15"/>
-      <c r="I309" s="14"/>
-      <c r="J309" s="14"/>
+      <c r="E309" s="14"/>
+      <c r="F309" s="14"/>
+      <c r="G309" s="14"/>
+      <c r="H309" s="14"/>
+      <c r="I309" s="13"/>
+      <c r="J309" s="13"/>
     </row>
     <row r="310" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="4" t="s">
@@ -10911,12 +10916,12 @@
       <c r="D310" s="3" t="s">
         <v>1321</v>
       </c>
-      <c r="E310" s="15"/>
-      <c r="F310" s="15"/>
-      <c r="G310" s="15"/>
-      <c r="H310" s="15"/>
-      <c r="I310" s="14"/>
-      <c r="J310" s="14"/>
+      <c r="E310" s="14"/>
+      <c r="F310" s="14"/>
+      <c r="G310" s="14"/>
+      <c r="H310" s="14"/>
+      <c r="I310" s="13"/>
+      <c r="J310" s="13"/>
     </row>
     <row r="311" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="4" t="s">
@@ -10931,12 +10936,12 @@
       <c r="D311" s="3" t="s">
         <v>1322</v>
       </c>
-      <c r="E311" s="15"/>
-      <c r="F311" s="15"/>
-      <c r="G311" s="15"/>
-      <c r="H311" s="15"/>
-      <c r="I311" s="14"/>
-      <c r="J311" s="14"/>
+      <c r="E311" s="14"/>
+      <c r="F311" s="14"/>
+      <c r="G311" s="14"/>
+      <c r="H311" s="14"/>
+      <c r="I311" s="13"/>
+      <c r="J311" s="13"/>
     </row>
     <row r="312" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="4" t="s">
@@ -10951,12 +10956,12 @@
       <c r="D312" s="3" t="s">
         <v>1323</v>
       </c>
-      <c r="E312" s="15"/>
-      <c r="F312" s="15"/>
-      <c r="G312" s="15"/>
-      <c r="H312" s="15"/>
-      <c r="I312" s="14"/>
-      <c r="J312" s="14"/>
+      <c r="E312" s="14"/>
+      <c r="F312" s="14"/>
+      <c r="G312" s="14"/>
+      <c r="H312" s="14"/>
+      <c r="I312" s="13"/>
+      <c r="J312" s="13"/>
     </row>
     <row r="313" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="4" t="s">
@@ -10971,15 +10976,15 @@
       <c r="D313" s="3" t="s">
         <v>1324</v>
       </c>
-      <c r="E313" s="15"/>
-      <c r="F313" s="15"/>
-      <c r="G313" s="15"/>
-      <c r="H313" s="15"/>
-      <c r="I313" s="14"/>
-      <c r="J313" s="14"/>
+      <c r="E313" s="14"/>
+      <c r="F313" s="14"/>
+      <c r="G313" s="14"/>
+      <c r="H313" s="14"/>
+      <c r="I313" s="13"/>
+      <c r="J313" s="13"/>
     </row>
     <row r="314" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A314" s="10" t="s">
+      <c r="A314" s="9" t="s">
         <v>899</v>
       </c>
       <c r="B314" s="3" t="s">
@@ -10991,12 +10996,12 @@
       <c r="D314" s="3" t="s">
         <v>1325</v>
       </c>
-      <c r="E314" s="15"/>
-      <c r="F314" s="15"/>
-      <c r="G314" s="15"/>
-      <c r="H314" s="15"/>
-      <c r="I314" s="14"/>
-      <c r="J314" s="14"/>
+      <c r="E314" s="14"/>
+      <c r="F314" s="14"/>
+      <c r="G314" s="14"/>
+      <c r="H314" s="14"/>
+      <c r="I314" s="13"/>
+      <c r="J314" s="13"/>
     </row>
     <row r="315" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="4" t="s">
@@ -11011,12 +11016,12 @@
       <c r="D315" s="3" t="s">
         <v>1326</v>
       </c>
-      <c r="E315" s="15"/>
-      <c r="F315" s="15"/>
-      <c r="G315" s="15"/>
-      <c r="H315" s="15"/>
-      <c r="I315" s="14"/>
-      <c r="J315" s="14"/>
+      <c r="E315" s="14"/>
+      <c r="F315" s="14"/>
+      <c r="G315" s="14"/>
+      <c r="H315" s="14"/>
+      <c r="I315" s="13"/>
+      <c r="J315" s="13"/>
     </row>
     <row r="316" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="4" t="s">
@@ -11031,12 +11036,12 @@
       <c r="D316" s="3" t="s">
         <v>1327</v>
       </c>
-      <c r="E316" s="15"/>
-      <c r="F316" s="15"/>
-      <c r="G316" s="15"/>
-      <c r="H316" s="15"/>
-      <c r="I316" s="14"/>
-      <c r="J316" s="14"/>
+      <c r="E316" s="14"/>
+      <c r="F316" s="14"/>
+      <c r="G316" s="14"/>
+      <c r="H316" s="14"/>
+      <c r="I316" s="13"/>
+      <c r="J316" s="13"/>
     </row>
     <row r="317" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="4" t="s">
@@ -11051,12 +11056,12 @@
       <c r="D317" s="3" t="s">
         <v>1328</v>
       </c>
-      <c r="E317" s="15"/>
-      <c r="F317" s="15"/>
-      <c r="G317" s="15"/>
-      <c r="H317" s="15"/>
-      <c r="I317" s="14"/>
-      <c r="J317" s="14"/>
+      <c r="E317" s="14"/>
+      <c r="F317" s="14"/>
+      <c r="G317" s="14"/>
+      <c r="H317" s="14"/>
+      <c r="I317" s="13"/>
+      <c r="J317" s="13"/>
     </row>
     <row r="318" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="4" t="s">
@@ -11071,16 +11076,16 @@
       <c r="D318" s="3" t="s">
         <v>1329</v>
       </c>
-      <c r="E318" s="15"/>
-      <c r="F318" s="15"/>
-      <c r="G318" s="15"/>
-      <c r="H318" s="15"/>
-      <c r="I318" s="14"/>
-      <c r="J318" s="14"/>
+      <c r="E318" s="14"/>
+      <c r="F318" s="14"/>
+      <c r="G318" s="14"/>
+      <c r="H318" s="14"/>
+      <c r="I318" s="13"/>
+      <c r="J318" s="13"/>
     </row>
     <row r="319" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A319" s="9">
-        <v>8505</v>
+      <c r="A319" s="21" t="s">
+        <v>1348</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>156</v>
@@ -11091,15 +11096,15 @@
       <c r="D319" s="3" t="s">
         <v>1330</v>
       </c>
-      <c r="E319" s="15"/>
-      <c r="F319" s="15"/>
-      <c r="G319" s="15"/>
-      <c r="H319" s="15"/>
-      <c r="I319" s="14"/>
-      <c r="J319" s="14"/>
+      <c r="E319" s="14"/>
+      <c r="F319" s="14"/>
+      <c r="G319" s="14"/>
+      <c r="H319" s="14"/>
+      <c r="I319" s="13"/>
+      <c r="J319" s="13"/>
     </row>
     <row r="320" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A320" s="10" t="s">
+      <c r="A320" s="9" t="s">
         <v>884</v>
       </c>
       <c r="B320" s="3" t="s">
@@ -11111,12 +11116,12 @@
       <c r="D320" s="3" t="s">
         <v>1331</v>
       </c>
-      <c r="E320" s="15"/>
-      <c r="F320" s="15"/>
-      <c r="G320" s="15"/>
-      <c r="H320" s="15"/>
-      <c r="I320" s="14"/>
-      <c r="J320" s="14"/>
+      <c r="E320" s="14"/>
+      <c r="F320" s="14"/>
+      <c r="G320" s="14"/>
+      <c r="H320" s="14"/>
+      <c r="I320" s="13"/>
+      <c r="J320" s="13"/>
     </row>
     <row r="321" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A321" s="8" t="s">
@@ -11131,12 +11136,12 @@
       <c r="D321" s="3" t="s">
         <v>1332</v>
       </c>
-      <c r="E321" s="15"/>
-      <c r="F321" s="15"/>
-      <c r="G321" s="15"/>
-      <c r="H321" s="15"/>
-      <c r="I321" s="14"/>
-      <c r="J321" s="14"/>
+      <c r="E321" s="14"/>
+      <c r="F321" s="14"/>
+      <c r="G321" s="14"/>
+      <c r="H321" s="14"/>
+      <c r="I321" s="13"/>
+      <c r="J321" s="13"/>
     </row>
     <row r="322" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A322" s="8" t="s">
@@ -11151,12 +11156,12 @@
       <c r="D322" s="3" t="s">
         <v>1333</v>
       </c>
-      <c r="E322" s="15"/>
-      <c r="F322" s="15"/>
-      <c r="G322" s="15"/>
-      <c r="H322" s="15"/>
-      <c r="I322" s="14"/>
-      <c r="J322" s="14"/>
+      <c r="E322" s="14"/>
+      <c r="F322" s="14"/>
+      <c r="G322" s="14"/>
+      <c r="H322" s="14"/>
+      <c r="I322" s="13"/>
+      <c r="J322" s="13"/>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A323" s="8" t="s">
@@ -11171,12 +11176,12 @@
       <c r="D323" s="3" t="s">
         <v>1334</v>
       </c>
-      <c r="E323" s="15"/>
-      <c r="F323" s="15"/>
-      <c r="G323" s="15"/>
-      <c r="H323" s="15"/>
-      <c r="I323" s="15"/>
-      <c r="J323" s="15"/>
+      <c r="E323" s="14"/>
+      <c r="F323" s="14"/>
+      <c r="G323" s="14"/>
+      <c r="H323" s="14"/>
+      <c r="I323" s="14"/>
+      <c r="J323" s="14"/>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A324" s="8" t="s">
@@ -11191,12 +11196,12 @@
       <c r="D324" s="3" t="s">
         <v>1335</v>
       </c>
-      <c r="E324" s="15"/>
-      <c r="F324" s="15"/>
-      <c r="G324" s="15"/>
-      <c r="H324" s="15"/>
-      <c r="I324" s="15"/>
-      <c r="J324" s="15"/>
+      <c r="E324" s="14"/>
+      <c r="F324" s="14"/>
+      <c r="G324" s="14"/>
+      <c r="H324" s="14"/>
+      <c r="I324" s="14"/>
+      <c r="J324" s="14"/>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A325" s="8" t="s">
@@ -11211,12 +11216,12 @@
       <c r="D325" s="3" t="s">
         <v>1336</v>
       </c>
-      <c r="E325" s="15"/>
-      <c r="F325" s="15"/>
-      <c r="G325" s="15"/>
-      <c r="H325" s="15"/>
-      <c r="I325" s="15"/>
-      <c r="J325" s="15"/>
+      <c r="E325" s="14"/>
+      <c r="F325" s="14"/>
+      <c r="G325" s="14"/>
+      <c r="H325" s="14"/>
+      <c r="I325" s="14"/>
+      <c r="J325" s="14"/>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A326" s="8" t="s">
@@ -11231,12 +11236,12 @@
       <c r="D326" s="3" t="s">
         <v>1337</v>
       </c>
-      <c r="E326" s="15"/>
-      <c r="F326" s="15"/>
-      <c r="G326" s="15"/>
-      <c r="H326" s="15"/>
-      <c r="I326" s="15"/>
-      <c r="J326" s="15"/>
+      <c r="E326" s="14"/>
+      <c r="F326" s="14"/>
+      <c r="G326" s="14"/>
+      <c r="H326" s="14"/>
+      <c r="I326" s="14"/>
+      <c r="J326" s="14"/>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A327" s="8" t="s">
@@ -11251,12 +11256,12 @@
       <c r="D327" s="3" t="s">
         <v>1338</v>
       </c>
-      <c r="E327" s="15"/>
-      <c r="F327" s="15"/>
-      <c r="G327" s="15"/>
-      <c r="H327" s="15"/>
-      <c r="I327" s="15"/>
-      <c r="J327" s="15"/>
+      <c r="E327" s="14"/>
+      <c r="F327" s="14"/>
+      <c r="G327" s="14"/>
+      <c r="H327" s="14"/>
+      <c r="I327" s="14"/>
+      <c r="J327" s="14"/>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A328" s="8" t="s">
@@ -11360,7 +11365,7 @@
       <c r="A335" t="s">
         <v>1009</v>
       </c>
-      <c r="B335" s="19" t="s">
+      <c r="B335" s="18" t="s">
         <v>1011</v>
       </c>
       <c r="C335" t="s">
@@ -14043,7 +14048,7 @@
       <c r="A332" t="s">
         <v>588</v>
       </c>
-      <c r="B332" s="20" t="s">
+      <c r="B332" s="19" t="s">
         <v>1344</v>
       </c>
     </row>
@@ -14088,22 +14093,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>951</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
+      <c r="A2" s="10"/>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="5" t="s">
         <v>121</v>
       </c>
@@ -14112,7 +14117,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="5" t="s">
         <v>161</v>
       </c>
@@ -14130,7 +14135,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="5" t="s">
         <v>380</v>
       </c>
@@ -14148,7 +14153,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="5" t="s">
         <v>101</v>
       </c>
@@ -14157,7 +14162,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="5" t="s">
         <v>198</v>
       </c>
@@ -14175,7 +14180,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
@@ -14184,11 +14189,11 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17" t="s">
         <v>961</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>960</v>
       </c>
     </row>
